--- a/raw_data/20200818_saline/20200818_Sensor2_Test_92.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_92.xlsx
@@ -1,3485 +1,3901 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60658D6-701C-4046-98E3-0317B00605CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>82272.927154</v>
+        <v>82272.927154000005</v>
       </c>
       <c r="B2" s="1">
-        <v>22.853591</v>
+        <v>22.853591000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1236.080000</v>
+        <v>1236.08</v>
       </c>
       <c r="D2" s="1">
-        <v>-304.069000</v>
+        <v>-304.06900000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>82283.291060</v>
+        <v>82283.291060000003</v>
       </c>
       <c r="G2" s="1">
-        <v>22.856470</v>
+        <v>22.856470000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1260.440000</v>
+        <v>1260.44</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.569000</v>
+        <v>-262.56900000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>82293.731350</v>
+        <v>82293.731350000002</v>
       </c>
       <c r="L2" s="1">
-        <v>22.859370</v>
+        <v>22.859369999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1296.410000</v>
+        <v>1296.4100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.849000</v>
+        <v>-200.84899999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>82304.556537</v>
+        <v>82304.556536999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.862377</v>
+        <v>22.862376999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1308.280000</v>
+        <v>1308.28</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.500000</v>
+        <v>-182.5</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>82315.071226</v>
       </c>
       <c r="V2" s="1">
-        <v>22.865298</v>
+        <v>22.865297999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1321.530000</v>
+        <v>1321.53</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.594000</v>
+        <v>-168.59399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>82325.486225</v>
+        <v>82325.486225000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.868191</v>
+        <v>22.868190999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1338.530000</v>
+        <v>1338.53</v>
       </c>
       <c r="AC2" s="1">
-        <v>-165.468000</v>
+        <v>-165.46799999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>82336.036623</v>
+        <v>82336.036623000007</v>
       </c>
       <c r="AF2" s="1">
-        <v>22.871121</v>
+        <v>22.871120999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1351.070000</v>
+        <v>1351.07</v>
       </c>
       <c r="AH2" s="1">
-        <v>-174.238000</v>
+        <v>-174.238</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>82346.845440</v>
+        <v>82346.845440000005</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.874124</v>
+        <v>22.874123999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>1370.780000</v>
+        <v>1370.78</v>
       </c>
       <c r="AM2" s="1">
-        <v>-202.683000</v>
+        <v>-202.68299999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>82357.409730</v>
+        <v>82357.409729999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.877058</v>
+        <v>22.877058000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1391.460000</v>
+        <v>1391.46</v>
       </c>
       <c r="AR2" s="1">
-        <v>-245.057000</v>
+        <v>-245.05699999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>82368.387684</v>
+        <v>82368.387684000001</v>
       </c>
       <c r="AU2" s="1">
         <v>22.880108</v>
       </c>
       <c r="AV2" s="1">
-        <v>1415.090000</v>
+        <v>1415.09</v>
       </c>
       <c r="AW2" s="1">
-        <v>-303.412000</v>
+        <v>-303.41199999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>82378.927706</v>
+        <v>82378.927706000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>22.883035</v>
       </c>
       <c r="BA2" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="BB2" s="1">
-        <v>-354.163000</v>
+        <v>-354.16300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>82389.622408</v>
+        <v>82389.622407999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.886006</v>
+        <v>22.886005999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG2" s="1">
-        <v>-595.844000</v>
+        <v>-595.84400000000005</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>82400.239770</v>
+        <v>82400.23977</v>
       </c>
       <c r="BJ2" s="1">
-        <v>22.888955</v>
+        <v>22.888954999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1669.170000</v>
+        <v>1669.17</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1027.590000</v>
+        <v>-1027.5899999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>82411.405211</v>
+        <v>82411.405211000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>22.892057</v>
+        <v>22.892057000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1958.580000</v>
+        <v>1958.58</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1772.580000</v>
+        <v>-1772.58</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>82422.587517</v>
+        <v>82422.587517000007</v>
       </c>
       <c r="BT2" s="1">
         <v>22.895163</v>
       </c>
       <c r="BU2" s="1">
-        <v>2340.050000</v>
+        <v>2340.0500000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2630.890000</v>
+        <v>-2630.89</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>82434.005916</v>
+        <v>82434.005915999995</v>
       </c>
       <c r="BY2" s="1">
-        <v>22.898335</v>
+        <v>22.898334999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2809.900000</v>
+        <v>2809.9</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3565.520000</v>
+        <v>-3565.52</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>82444.646591</v>
+        <v>82444.646590999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>22.901291</v>
+        <v>22.901291000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4182.380000</v>
+        <v>4182.38</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5803.780000</v>
+        <v>-5803.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>82273.273858</v>
       </c>
       <c r="B3" s="1">
-        <v>22.853687</v>
+        <v>22.853687000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1235.900000</v>
+        <v>1235.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.527000</v>
+        <v>-303.52699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>82283.639252</v>
+        <v>82283.639251999994</v>
       </c>
       <c r="G3" s="1">
-        <v>22.856566</v>
+        <v>22.856566000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1261.450000</v>
+        <v>1261.45</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.118000</v>
+        <v>-262.11799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>82294.457030</v>
+        <v>82294.457030000005</v>
       </c>
       <c r="L3" s="1">
-        <v>22.859571</v>
+        <v>22.859570999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1296.520000</v>
+        <v>1296.52</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.508000</v>
+        <v>-200.50800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>82304.905255</v>
+        <v>82304.905255000005</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.862474</v>
+        <v>22.862473999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1308.350000</v>
+        <v>1308.3499999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-182.464000</v>
+        <v>-182.464</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>82315.418426</v>
+        <v>82315.418426000004</v>
       </c>
       <c r="V3" s="1">
-        <v>22.865394</v>
+        <v>22.865393999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1321.670000</v>
+        <v>1321.67</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.607000</v>
+        <v>-168.607</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>82325.832428</v>
+        <v>82325.832427999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.868287</v>
+        <v>22.868286999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1338.680000</v>
+        <v>1338.68</v>
       </c>
       <c r="AC3" s="1">
-        <v>-165.515000</v>
+        <v>-165.51499999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>82336.399198</v>
+        <v>82336.399197999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.871222</v>
+        <v>22.871221999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1351.160000</v>
+        <v>1351.16</v>
       </c>
       <c r="AH3" s="1">
-        <v>-174.480000</v>
+        <v>-174.48</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>82347.545791</v>
+        <v>82347.545790999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>22.874318</v>
+        <v>22.874317999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1370.740000</v>
+        <v>1370.74</v>
       </c>
       <c r="AM3" s="1">
-        <v>-202.706000</v>
+        <v>-202.70599999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>82357.850179</v>
+        <v>82357.850179000001</v>
       </c>
       <c r="AP3" s="1">
         <v>22.877181</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1391.460000</v>
+        <v>1391.46</v>
       </c>
       <c r="AR3" s="1">
-        <v>-245.096000</v>
+        <v>-245.096</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>82368.497332</v>
+        <v>82368.497331999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.880138</v>
+        <v>22.880137999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW3" s="1">
-        <v>-303.389000</v>
+        <v>-303.38900000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>82379.288775</v>
+        <v>82379.288774999994</v>
       </c>
       <c r="AZ3" s="1">
         <v>22.883136</v>
       </c>
       <c r="BA3" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="BB3" s="1">
-        <v>-354.153000</v>
+        <v>-354.15300000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>82389.983495</v>
+        <v>82389.983494999993</v>
       </c>
       <c r="BE3" s="1">
-        <v>22.886107</v>
+        <v>22.886106999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1517.250000</v>
+        <v>1517.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-595.859000</v>
+        <v>-595.85900000000004</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>82400.627145</v>
+        <v>82400.627145000006</v>
       </c>
       <c r="BJ3" s="1">
         <v>22.889063</v>
       </c>
       <c r="BK3" s="1">
-        <v>1669.200000</v>
+        <v>1669.2</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1027.540000</v>
+        <v>-1027.54</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>82411.832266</v>
+        <v>82411.832265999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.892176</v>
+        <v>22.892175999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1958.370000</v>
+        <v>1958.37</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1772.990000</v>
+        <v>-1772.99</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>82423.081068</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.895300</v>
+        <v>22.895299999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2339.770000</v>
+        <v>2339.77</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2630.380000</v>
+        <v>-2630.38</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>82434.184973</v>
+        <v>82434.184972999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.898385</v>
+        <v>22.898385000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2809.740000</v>
+        <v>2809.74</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3565.260000</v>
+        <v>-3565.26</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>82445.239839</v>
+        <v>82445.239839000002</v>
       </c>
       <c r="CD3" s="1">
         <v>22.901456</v>
       </c>
       <c r="CE3" s="1">
-        <v>4188.540000</v>
+        <v>4188.54</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5820.800000</v>
+        <v>-5820.8</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>82273.960320</v>
+        <v>82273.960319999998</v>
       </c>
       <c r="B4" s="1">
-        <v>22.853878</v>
+        <v>22.853878000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1235.910000</v>
+        <v>1235.9100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.663000</v>
+        <v>-303.66300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>82284.325715</v>
+        <v>82284.325714999999</v>
       </c>
       <c r="G4" s="1">
-        <v>22.856757</v>
+        <v>22.856757000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1259.770000</v>
+        <v>1259.77</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.520000</v>
+        <v>-262.52</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>82294.803205</v>
+        <v>82294.803205000004</v>
       </c>
       <c r="L4" s="1">
-        <v>22.859668</v>
+        <v>22.859667999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1296.710000</v>
+        <v>1296.71</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.886000</v>
+        <v>-200.886</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>82305.254439</v>
+        <v>82305.254438999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>22.862571</v>
+        <v>22.862570999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.507000</v>
+        <v>-182.50700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>82315.758718</v>
+        <v>82315.758717999997</v>
       </c>
       <c r="V4" s="1">
         <v>22.865489</v>
       </c>
       <c r="W4" s="1">
-        <v>1321.560000</v>
+        <v>1321.56</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.724000</v>
+        <v>-168.72399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>82326.505003</v>
+        <v>82326.505002999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>22.868474</v>
+        <v>22.868473999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1338.630000</v>
+        <v>1338.63</v>
       </c>
       <c r="AC4" s="1">
-        <v>-165.391000</v>
+        <v>-165.39099999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>82337.049949</v>
+        <v>82337.049948999993</v>
       </c>
       <c r="AF4" s="1">
-        <v>22.871403</v>
+        <v>22.871403000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1351.150000</v>
+        <v>1351.15</v>
       </c>
       <c r="AH4" s="1">
-        <v>-174.207000</v>
+        <v>-174.20699999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>82347.926224</v>
+        <v>82347.926223999995</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.874424</v>
+        <v>22.874424000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1370.770000</v>
+        <v>1370.77</v>
       </c>
       <c r="AM4" s="1">
-        <v>-202.678000</v>
+        <v>-202.678</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>82358.208785</v>
+        <v>82358.208784999995</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.877280</v>
+        <v>22.877279999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1391.450000</v>
+        <v>1391.45</v>
       </c>
       <c r="AR4" s="1">
-        <v>-245.101000</v>
+        <v>-245.101</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>82368.844003</v>
+        <v>82368.844003000006</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.880234</v>
+        <v>22.880234000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1415.050000</v>
+        <v>1415.05</v>
       </c>
       <c r="AW4" s="1">
-        <v>-303.399000</v>
+        <v>-303.399</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>82379.645380</v>
+        <v>82379.645380000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.883235</v>
+        <v>22.883234999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB4" s="1">
-        <v>-354.187000</v>
+        <v>-354.18700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>82390.348055</v>
+        <v>82390.348054999995</v>
       </c>
       <c r="BE4" s="1">
         <v>22.886208</v>
       </c>
       <c r="BF4" s="1">
-        <v>1517.230000</v>
+        <v>1517.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-595.854000</v>
+        <v>-595.85400000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>82401.054232</v>
+        <v>82401.054231999995</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.889182</v>
+        <v>22.889182000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1669.130000</v>
+        <v>1669.13</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1027.620000</v>
+        <v>-1027.6199999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>82412.254858</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.892293</v>
+        <v>22.892292999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1958.470000</v>
+        <v>1958.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1772.870000</v>
+        <v>-1772.87</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>82423.491227</v>
+        <v>82423.491227000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.895414</v>
+        <v>22.895413999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2339.510000</v>
+        <v>2339.5100000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2630.200000</v>
+        <v>-2630.2</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>82434.603101</v>
+        <v>82434.603101000001</v>
       </c>
       <c r="BY4" s="1">
         <v>22.898501</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2809.180000</v>
+        <v>2809.18</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3565.230000</v>
+        <v>-3565.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>82445.779454</v>
+        <v>82445.779454000003</v>
       </c>
       <c r="CD4" s="1">
         <v>22.901605</v>
       </c>
       <c r="CE4" s="1">
-        <v>4188.570000</v>
+        <v>4188.57</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5798.860000</v>
+        <v>-5798.86</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>82274.300080</v>
+        <v>82274.300080000001</v>
       </c>
       <c r="B5" s="1">
-        <v>22.853972</v>
+        <v>22.853971999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.732000</v>
+        <v>-303.73200000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>82284.673449</v>
+        <v>82284.673448999994</v>
       </c>
       <c r="G5" s="1">
-        <v>22.856854</v>
+        <v>22.856853999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>1261.030000</v>
+        <v>1261.03</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.135000</v>
+        <v>-263.13499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>82295.148453</v>
+        <v>82295.148453000002</v>
       </c>
       <c r="L5" s="1">
-        <v>22.859763</v>
+        <v>22.859763000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1296.440000</v>
+        <v>1296.44</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.709000</v>
+        <v>-200.709</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>82305.926982</v>
+        <v>82305.926982000005</v>
       </c>
       <c r="Q5" s="1">
-        <v>22.862757</v>
+        <v>22.862756999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1308.320000</v>
+        <v>1308.32</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.597000</v>
+        <v>-182.59700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>82316.434233</v>
+        <v>82316.434233000007</v>
       </c>
       <c r="V5" s="1">
-        <v>22.865676</v>
+        <v>22.865676000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1321.690000</v>
+        <v>1321.69</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.664000</v>
+        <v>-168.66399999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>82326.886955</v>
+        <v>82326.886954999994</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.868580</v>
+        <v>22.868580000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1338.480000</v>
+        <v>1338.48</v>
       </c>
       <c r="AC5" s="1">
-        <v>-165.264000</v>
+        <v>-165.26400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>82337.427411</v>
+        <v>82337.427410999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.871508</v>
+        <v>22.871507999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1350.990000</v>
+        <v>1350.99</v>
       </c>
       <c r="AH5" s="1">
-        <v>-174.206000</v>
+        <v>-174.20599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>82348.274910</v>
+        <v>82348.274909999993</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.874521</v>
+        <v>22.874521000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1370.800000</v>
+        <v>1370.8</v>
       </c>
       <c r="AM5" s="1">
-        <v>-202.691000</v>
+        <v>-202.691</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>82358.567888</v>
+        <v>82358.567888000005</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.877380</v>
+        <v>22.877379999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1391.440000</v>
+        <v>1391.44</v>
       </c>
       <c r="AR5" s="1">
-        <v>-245.091000</v>
+        <v>-245.09100000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>82369.209059</v>
+        <v>82369.209059000001</v>
       </c>
       <c r="AU5" s="1">
         <v>22.880336</v>
       </c>
       <c r="AV5" s="1">
-        <v>1415.050000</v>
+        <v>1415.05</v>
       </c>
       <c r="AW5" s="1">
-        <v>-303.413000</v>
+        <v>-303.41300000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>82380.080372</v>
+        <v>82380.080371999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.883356</v>
+        <v>22.883355999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB5" s="1">
-        <v>-354.164000</v>
+        <v>-354.16399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>82390.778123</v>
+        <v>82390.778122999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.886327</v>
+        <v>22.886327000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1517.230000</v>
+        <v>1517.23</v>
       </c>
       <c r="BG5" s="1">
-        <v>-595.806000</v>
+        <v>-595.80600000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>82401.379100</v>
+        <v>82401.379100000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.889272</v>
+        <v>22.889271999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1669.230000</v>
+        <v>1669.23</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1027.550000</v>
+        <v>-1027.55</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>82412.648714</v>
+        <v>82412.648713999995</v>
       </c>
       <c r="BO5" s="1">
-        <v>22.892402</v>
+        <v>22.892402000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1958.270000</v>
+        <v>1958.27</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1773.070000</v>
+        <v>-1773.07</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>82423.928242</v>
+        <v>82423.928241999994</v>
       </c>
       <c r="BT5" s="1">
         <v>22.895536</v>
       </c>
       <c r="BU5" s="1">
-        <v>2339.360000</v>
+        <v>2339.36</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2629.310000</v>
+        <v>-2629.31</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>82435.032172</v>
+        <v>82435.032172000007</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.898620</v>
+        <v>22.898620000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2809.410000</v>
+        <v>2809.41</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3565.430000</v>
+        <v>-3565.43</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>82446.320590</v>
+        <v>82446.320590000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>22.901756</v>
+        <v>22.901755999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4178.910000</v>
+        <v>4178.91</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5817.440000</v>
+        <v>-5817.44</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>82274.640832</v>
+        <v>82274.640832000005</v>
       </c>
       <c r="B6" s="1">
-        <v>22.854067</v>
+        <v>22.854067000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1235.770000</v>
+        <v>1235.77</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.527000</v>
+        <v>-303.52699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>82285.022099</v>
+        <v>82285.022098999994</v>
       </c>
       <c r="G6" s="1">
-        <v>22.856951</v>
+        <v>22.856950999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1260.760000</v>
+        <v>1260.76</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.765000</v>
+        <v>-261.76499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>82295.802644</v>
+        <v>82295.802643999996</v>
       </c>
       <c r="L6" s="1">
         <v>22.859945</v>
       </c>
       <c r="M6" s="1">
-        <v>1296.520000</v>
+        <v>1296.52</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.748000</v>
+        <v>-200.74799999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>82306.299974</v>
+        <v>82306.299973999994</v>
       </c>
       <c r="Q6" s="1">
-        <v>22.862861</v>
+        <v>22.862860999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1308.300000</v>
+        <v>1308.3</v>
       </c>
       <c r="S6" s="1">
-        <v>-182.568000</v>
+        <v>-182.56800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>82316.789368</v>
+        <v>82316.789367999998</v>
       </c>
       <c r="V6" s="1">
-        <v>22.865775</v>
+        <v>22.865774999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1321.410000</v>
+        <v>1321.41</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.664000</v>
+        <v>-168.66399999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>82327.235114</v>
+        <v>82327.235113999996</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.868676</v>
+        <v>22.868676000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1338.580000</v>
+        <v>1338.58</v>
       </c>
       <c r="AC6" s="1">
-        <v>-165.365000</v>
+        <v>-165.36500000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>82337.890701</v>
+        <v>82337.890700999997</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.871636</v>
+        <v>22.871635999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1351.020000</v>
+        <v>1351.02</v>
       </c>
       <c r="AH6" s="1">
-        <v>-174.231000</v>
+        <v>-174.23099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>82348.624104</v>
+        <v>82348.624104000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.874618</v>
+        <v>22.874618000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1370.770000</v>
+        <v>1370.77</v>
       </c>
       <c r="AM6" s="1">
-        <v>-202.695000</v>
+        <v>-202.69499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>82358.985024</v>
+        <v>82358.985023999994</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.877496</v>
+        <v>22.877496000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1391.480000</v>
+        <v>1391.48</v>
       </c>
       <c r="AR6" s="1">
-        <v>-245.064000</v>
+        <v>-245.06399999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>82369.640083</v>
+        <v>82369.640083000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.880456</v>
+        <v>22.880455999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1415.080000</v>
+        <v>1415.08</v>
       </c>
       <c r="AW6" s="1">
-        <v>-303.408000</v>
+        <v>-303.40800000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>82380.362628</v>
+        <v>82380.362628000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.883434</v>
+        <v>22.883434000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-354.203000</v>
+        <v>-354.20299999999997</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>82391.068245</v>
+        <v>82391.068245000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.886408</v>
+        <v>22.886407999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1517.230000</v>
+        <v>1517.23</v>
       </c>
       <c r="BG6" s="1">
-        <v>-595.849000</v>
+        <v>-595.84900000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>82401.754057</v>
+        <v>82401.754056999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.889376</v>
+        <v>22.889375999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1027.600000</v>
+        <v>-1027.5999999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>82413.071768</v>
+        <v>82413.071767999994</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.892520</v>
+        <v>22.892520000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1958.380000</v>
+        <v>1958.38</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1772.900000</v>
+        <v>-1772.9</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>82424.359227</v>
+        <v>82424.359226999994</v>
       </c>
       <c r="BT6" s="1">
-        <v>22.895655</v>
+        <v>22.895655000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2338.070000</v>
+        <v>2338.0700000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2628.620000</v>
+        <v>-2628.62</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>82435.477547</v>
+        <v>82435.477547000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>22.898744</v>
+        <v>22.898744000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2808.960000</v>
+        <v>2808.96</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3565.840000</v>
+        <v>-3565.84</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>82446.861229</v>
+        <v>82446.861229000002</v>
       </c>
       <c r="CD6" s="1">
         <v>22.901906</v>
       </c>
       <c r="CE6" s="1">
-        <v>4197.630000</v>
+        <v>4197.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5806.410000</v>
+        <v>-5806.41</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>82275.303488</v>
+        <v>82275.303488000005</v>
       </c>
       <c r="B7" s="1">
-        <v>22.854251</v>
+        <v>22.854251000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1235.770000</v>
+        <v>1235.77</v>
       </c>
       <c r="D7" s="1">
-        <v>-303.702000</v>
+        <v>-303.702</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>82285.938743</v>
+        <v>82285.938743000006</v>
       </c>
       <c r="G7" s="1">
         <v>22.857205</v>
       </c>
       <c r="H7" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="I7" s="1">
-        <v>-262.305000</v>
+        <v>-262.30500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>82296.184564</v>
+        <v>82296.184563999996</v>
       </c>
       <c r="L7" s="1">
-        <v>22.860051</v>
+        <v>22.860050999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1296.580000</v>
+        <v>1296.58</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.718000</v>
+        <v>-200.71799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>82306.649157</v>
+        <v>82306.649157000007</v>
       </c>
       <c r="Q7" s="1">
-        <v>22.862958</v>
+        <v>22.862957999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1308.300000</v>
+        <v>1308.3</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.566000</v>
+        <v>-182.566</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>82317.133095</v>
+        <v>82317.133094999997</v>
       </c>
       <c r="V7" s="1">
-        <v>22.865870</v>
+        <v>22.865870000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1321.460000</v>
+        <v>1321.46</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.559000</v>
+        <v>-168.559</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>82327.583305</v>
+        <v>82327.583304999993</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.868773</v>
+        <v>22.868773000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1338.560000</v>
+        <v>1338.56</v>
       </c>
       <c r="AC7" s="1">
-        <v>-165.399000</v>
+        <v>-165.399</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>82338.489837</v>
+        <v>82338.489837000001</v>
       </c>
       <c r="AF7" s="1">
         <v>22.871803</v>
       </c>
       <c r="AG7" s="1">
-        <v>1351.090000</v>
+        <v>1351.09</v>
       </c>
       <c r="AH7" s="1">
-        <v>-174.190000</v>
+        <v>-174.19</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>82349.046723</v>
+        <v>82349.046723000007</v>
       </c>
       <c r="AK7" s="1">
-        <v>22.874735</v>
+        <v>22.874735000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1370.770000</v>
+        <v>1370.77</v>
       </c>
       <c r="AM7" s="1">
-        <v>-202.661000</v>
+        <v>-202.661</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>82359.289072</v>
       </c>
       <c r="AP7" s="1">
-        <v>22.877580</v>
+        <v>22.877579999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1391.490000</v>
+        <v>1391.49</v>
       </c>
       <c r="AR7" s="1">
-        <v>-245.050000</v>
+        <v>-245.05</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>82369.937185</v>
+        <v>82369.937185000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.880538</v>
+        <v>22.880538000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1415.080000</v>
+        <v>1415.08</v>
       </c>
       <c r="AW7" s="1">
-        <v>-303.410000</v>
+        <v>-303.41000000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>82380.722723</v>
+        <v>82380.722722999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.883534</v>
+        <v>22.883534000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-354.164000</v>
+        <v>-354.16399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>82391.439254</v>
+        <v>82391.439253999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.886511</v>
+        <v>22.886510999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG7" s="1">
-        <v>-595.846000</v>
+        <v>-595.846</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>82402.154823</v>
+        <v>82402.154823000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.889487</v>
+        <v>22.889486999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1027.560000</v>
+        <v>-1027.56</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>82413.890168</v>
+        <v>82413.890167999998</v>
       </c>
       <c r="BO7" s="1">
         <v>22.892747</v>
       </c>
       <c r="BP7" s="1">
-        <v>1958.110000</v>
+        <v>1958.11</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1772.950000</v>
+        <v>-1772.95</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>82425.194490</v>
+        <v>82425.194489999994</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.895887</v>
+        <v>22.895886999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>2337.550000</v>
+        <v>2337.5500000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2628.540000</v>
+        <v>-2628.54</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>82435.910060</v>
+        <v>82435.910059999995</v>
       </c>
       <c r="BY7" s="1">
         <v>22.898864</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2809.640000</v>
+        <v>2809.64</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3564.920000</v>
+        <v>-3564.92</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>82447.397899</v>
+        <v>82447.397899000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.902055</v>
+        <v>22.902055000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4179.870000</v>
+        <v>4179.87</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5806.910000</v>
+        <v>-5806.91</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>82275.666595</v>
+        <v>82275.666595000002</v>
       </c>
       <c r="B8" s="1">
-        <v>22.854352</v>
+        <v>22.854351999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1235.920000</v>
+        <v>1235.92</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.924000</v>
+        <v>-303.92399999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>82286.056258</v>
+        <v>82286.056257999997</v>
       </c>
       <c r="G8" s="1">
-        <v>22.857238</v>
+        <v>22.857237999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1260.510000</v>
+        <v>1260.51</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.911000</v>
+        <v>-262.911</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>82296.533765</v>
       </c>
       <c r="L8" s="1">
-        <v>22.860148</v>
+        <v>22.860147999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1296.350000</v>
+        <v>1296.3499999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.998000</v>
+        <v>-200.99799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>82307.000326</v>
+        <v>82307.000325999994</v>
       </c>
       <c r="Q8" s="1">
         <v>22.863056</v>
       </c>
       <c r="R8" s="1">
-        <v>1308.280000</v>
+        <v>1308.28</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.517000</v>
+        <v>-182.517</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>82317.477319</v>
+        <v>82317.477318999998</v>
       </c>
       <c r="V8" s="1">
         <v>22.865966</v>
       </c>
       <c r="W8" s="1">
-        <v>1321.470000</v>
+        <v>1321.47</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.485000</v>
+        <v>-168.48500000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>82328.017801</v>
+        <v>82328.017800999995</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.868894</v>
+        <v>22.868894000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1338.530000</v>
+        <v>1338.53</v>
       </c>
       <c r="AC8" s="1">
-        <v>-165.455000</v>
+        <v>-165.45500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>82338.837532</v>
+        <v>82338.837532000005</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.871899</v>
+        <v>22.871898999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1351.000000</v>
+        <v>1351</v>
       </c>
       <c r="AH8" s="1">
-        <v>-174.225000</v>
+        <v>-174.22499999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>82349.320509</v>
+        <v>82349.320508999997</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.874811</v>
+        <v>22.874811000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1370.760000</v>
+        <v>1370.76</v>
       </c>
       <c r="AM8" s="1">
-        <v>-202.676000</v>
+        <v>-202.67599999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>82359.648175</v>
+        <v>82359.648174999995</v>
       </c>
       <c r="AP8" s="1">
-        <v>22.877680</v>
+        <v>22.877680000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1391.460000</v>
+        <v>1391.46</v>
       </c>
       <c r="AR8" s="1">
-        <v>-245.074000</v>
+        <v>-245.07400000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>82370.303236</v>
+        <v>82370.303236000007</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.880640</v>
+        <v>22.88064</v>
       </c>
       <c r="AV8" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="AW8" s="1">
-        <v>-303.380000</v>
+        <v>-303.38</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>82381.079811</v>
+        <v>82381.079811000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>22.883633</v>
       </c>
       <c r="BA8" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-354.135000</v>
+        <v>-354.13499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>82392.152037</v>
+        <v>82392.152037000007</v>
       </c>
       <c r="BE8" s="1">
         <v>22.886709</v>
       </c>
       <c r="BF8" s="1">
-        <v>1517.230000</v>
+        <v>1517.23</v>
       </c>
       <c r="BG8" s="1">
-        <v>-595.822000</v>
+        <v>-595.822</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>82402.898326</v>
+        <v>82402.898325999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>22.889694</v>
+        <v>22.889693999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1669.140000</v>
+        <v>1669.14</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1027.570000</v>
+        <v>-1027.57</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>82414.304855</v>
+        <v>82414.304854999995</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.892862</v>
+        <v>22.892862000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1958.250000</v>
+        <v>1958.25</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1772.930000</v>
+        <v>-1772.93</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>82425.660241</v>
+        <v>82425.660241000005</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.896017</v>
+        <v>22.896017000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2336.940000</v>
+        <v>2336.94</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2628.940000</v>
+        <v>-2628.94</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>82436.333146</v>
+        <v>82436.333146000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.898981</v>
+        <v>22.898980999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2808.570000</v>
+        <v>2808.57</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3565.160000</v>
+        <v>-3565.16</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>82448.250522</v>
+        <v>82448.250522000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.902292</v>
+        <v>22.902291999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4192.310000</v>
+        <v>4192.3100000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5804.320000</v>
+        <v>-5804.32</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>82276.009294</v>
+        <v>82276.009294000003</v>
       </c>
       <c r="B9" s="1">
         <v>22.854447</v>
       </c>
       <c r="C9" s="1">
-        <v>1235.980000</v>
+        <v>1235.98</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.644000</v>
+        <v>-303.64400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>82286.398496</v>
+        <v>82286.398495999994</v>
       </c>
       <c r="G9" s="1">
-        <v>22.857333</v>
+        <v>22.857333000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1261.250000</v>
+        <v>1261.25</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.431000</v>
+        <v>-262.43099999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>82296.877474</v>
+        <v>82296.877473999994</v>
       </c>
       <c r="L9" s="1">
-        <v>22.860244</v>
+        <v>22.860244000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1296.270000</v>
+        <v>1296.27</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.703000</v>
+        <v>-200.703</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>82307.429364</v>
+        <v>82307.429363999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>22.863175</v>
+        <v>22.863174999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1308.370000</v>
+        <v>1308.3699999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.505000</v>
+        <v>-182.505</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>82317.905862</v>
       </c>
       <c r="V9" s="1">
-        <v>22.866085</v>
+        <v>22.866085000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1321.460000</v>
+        <v>1321.46</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.509000</v>
+        <v>-168.50899999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>82328.285149</v>
+        <v>82328.285149000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>22.868968</v>
+        <v>22.868967999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1338.560000</v>
+        <v>1338.56</v>
       </c>
       <c r="AC9" s="1">
-        <v>-165.327000</v>
+        <v>-165.327</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>82339.181755</v>
+        <v>82339.181754999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.871995</v>
+        <v>22.871994999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1351.050000</v>
+        <v>1351.05</v>
       </c>
       <c r="AH9" s="1">
-        <v>-174.228000</v>
+        <v>-174.22800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>82349.671645</v>
+        <v>82349.671644999995</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.874909</v>
+        <v>22.874908999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1370.740000</v>
+        <v>1370.74</v>
       </c>
       <c r="AM9" s="1">
-        <v>-202.665000</v>
+        <v>-202.66499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>82360.007278</v>
+        <v>82360.007278000005</v>
       </c>
       <c r="AP9" s="1">
-        <v>22.877780</v>
+        <v>22.877780000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1391.440000</v>
+        <v>1391.44</v>
       </c>
       <c r="AR9" s="1">
-        <v>-245.068000</v>
+        <v>-245.06800000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>82370.668785</v>
+        <v>82370.668785000002</v>
       </c>
       <c r="AU9" s="1">
         <v>22.880741</v>
       </c>
       <c r="AV9" s="1">
-        <v>1415.080000</v>
+        <v>1415.08</v>
       </c>
       <c r="AW9" s="1">
-        <v>-303.411000</v>
+        <v>-303.411</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>82381.796531</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.883832</v>
+        <v>22.883832000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1433.830000</v>
+        <v>1433.83</v>
       </c>
       <c r="BB9" s="1">
-        <v>-354.142000</v>
+        <v>-354.142</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>82392.513092</v>
+        <v>82392.513091999994</v>
       </c>
       <c r="BE9" s="1">
         <v>22.886809</v>
       </c>
       <c r="BF9" s="1">
-        <v>1517.230000</v>
+        <v>1517.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-595.869000</v>
+        <v>-595.86900000000003</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>82403.310005</v>
+        <v>82403.310005000007</v>
       </c>
       <c r="BJ9" s="1">
-        <v>22.889808</v>
+        <v>22.889807999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1669.110000</v>
+        <v>1669.11</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1027.540000</v>
+        <v>-1027.54</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>82414.702614</v>
+        <v>82414.702613999994</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.892973</v>
+        <v>22.892973000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1958.210000</v>
+        <v>1958.21</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1772.970000</v>
+        <v>-1772.97</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>82426.372983</v>
+        <v>82426.372982999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>22.896215</v>
+        <v>22.896215000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>2336.140000</v>
+        <v>2336.14</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2628.860000</v>
+        <v>-2628.86</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>82437.074665</v>
+        <v>82437.074664999993</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.899187</v>
+        <v>22.899187000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2808.870000</v>
+        <v>2808.87</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3565.010000</v>
+        <v>-3565.01</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>82448.476697</v>
+        <v>82448.476697000006</v>
       </c>
       <c r="CD9" s="1">
         <v>22.902355</v>
       </c>
       <c r="CE9" s="1">
-        <v>4193.360000</v>
+        <v>4193.3599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5802.290000</v>
+        <v>-5802.29</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>82276.351534</v>
+        <v>82276.351534000001</v>
       </c>
       <c r="B10" s="1">
-        <v>22.854542</v>
+        <v>22.854541999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1235.950000</v>
+        <v>1235.95</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.783000</v>
+        <v>-303.78300000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>82286.821087</v>
+        <v>82286.821087000004</v>
       </c>
       <c r="G10" s="1">
-        <v>22.857450</v>
+        <v>22.85745</v>
       </c>
       <c r="H10" s="1">
-        <v>1260.960000</v>
+        <v>1260.96</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.016000</v>
+        <v>-262.01600000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>82297.305026</v>
+        <v>82297.305026000002</v>
       </c>
       <c r="L10" s="1">
         <v>22.860363</v>
       </c>
       <c r="M10" s="1">
-        <v>1296.390000</v>
+        <v>1296.3900000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.857000</v>
+        <v>-200.857</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>82307.708148</v>
+        <v>82307.708148000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.863252</v>
+        <v>22.863251999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1308.410000</v>
+        <v>1308.4100000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.519000</v>
+        <v>-182.51900000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>82318.172710</v>
+        <v>82318.172709999999</v>
       </c>
       <c r="V10" s="1">
         <v>22.866159</v>
       </c>
       <c r="W10" s="1">
-        <v>1321.370000</v>
+        <v>1321.37</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.669000</v>
+        <v>-168.66900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>82328.631848</v>
+        <v>82328.631848000005</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.869064</v>
+        <v>22.869064000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1338.510000</v>
+        <v>1338.51</v>
       </c>
       <c r="AC10" s="1">
-        <v>-165.368000</v>
+        <v>-165.36799999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>82339.527466</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.872091</v>
+        <v>22.872091000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1351.030000</v>
+        <v>1351.03</v>
       </c>
       <c r="AH10" s="1">
-        <v>-174.243000</v>
+        <v>-174.24299999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>82350.020332</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.875006</v>
+        <v>22.875005999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1370.770000</v>
+        <v>1370.77</v>
       </c>
       <c r="AM10" s="1">
-        <v>-202.690000</v>
+        <v>-202.69</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>82360.726511</v>
+        <v>82360.726511000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>22.877980</v>
+        <v>22.877980000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1391.450000</v>
+        <v>1391.45</v>
       </c>
       <c r="AR10" s="1">
-        <v>-245.050000</v>
+        <v>-245.05</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>82371.402878</v>
+        <v>82371.402877999994</v>
       </c>
       <c r="AU10" s="1">
-        <v>22.880945</v>
+        <v>22.880945000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW10" s="1">
-        <v>-303.386000</v>
+        <v>-303.38600000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>82382.157619</v>
+        <v>82382.157619000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.883933</v>
+        <v>22.883932999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1433.770000</v>
+        <v>1433.77</v>
       </c>
       <c r="BB10" s="1">
-        <v>-354.128000</v>
+        <v>-354.12799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>82392.876691</v>
+        <v>82392.876690999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>22.886910</v>
+        <v>22.88691</v>
       </c>
       <c r="BF10" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG10" s="1">
-        <v>-595.830000</v>
+        <v>-595.83000000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>82403.680550</v>
+        <v>82403.680550000005</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.889911</v>
+        <v>22.889911000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1669.110000</v>
+        <v>1669.11</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1027.520000</v>
+        <v>-1027.52</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>82415.437222</v>
+        <v>82415.437221999993</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.893177</v>
+        <v>22.893177000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1958.100000</v>
+        <v>1958.1</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1772.900000</v>
+        <v>-1772.9</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>82426.506903</v>
+        <v>82426.506903000001</v>
       </c>
       <c r="BT10" s="1">
         <v>22.896252</v>
       </c>
       <c r="BU10" s="1">
-        <v>2335.830000</v>
+        <v>2335.83</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2629.200000</v>
+        <v>-2629.2</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>82437.224457</v>
+        <v>82437.224457000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.899229</v>
+        <v>22.899228999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2809.450000</v>
+        <v>2809.45</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3565.280000</v>
+        <v>-3565.28</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>82448.999979</v>
       </c>
       <c r="CD10" s="1">
-        <v>22.902500</v>
+        <v>22.9025</v>
       </c>
       <c r="CE10" s="1">
-        <v>4176.450000</v>
+        <v>4176.45</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5805.700000</v>
+        <v>-5805.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>82276.772141</v>
+        <v>82276.772140999994</v>
       </c>
       <c r="B11" s="1">
-        <v>22.854659</v>
+        <v>22.854659000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1235.820000</v>
+        <v>1235.82</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.592000</v>
+        <v>-303.59199999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>82287.096863</v>
+        <v>82287.096862999999</v>
       </c>
       <c r="G11" s="1">
-        <v>22.857527</v>
+        <v>22.857527000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1260.840000</v>
+        <v>1260.8399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.970000</v>
+        <v>-261.97000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>82297.578322</v>
+        <v>82297.578322000001</v>
       </c>
       <c r="L11" s="1">
-        <v>22.860438</v>
+        <v>22.860437999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1296.270000</v>
+        <v>1296.27</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.608000</v>
+        <v>-200.608</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>82308.055315</v>
+        <v>82308.055315000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.863349</v>
+        <v>22.863348999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1308.430000</v>
+        <v>1308.43</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.605000</v>
+        <v>-182.60499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>82318.518423</v>
+        <v>82318.518423000001</v>
       </c>
       <c r="V11" s="1">
-        <v>22.866255</v>
+        <v>22.866254999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1321.480000</v>
+        <v>1321.48</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.520000</v>
+        <v>-168.52</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>82328.985000</v>
+        <v>82328.985000000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.869162</v>
+        <v>22.869161999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1338.550000</v>
+        <v>1338.55</v>
       </c>
       <c r="AC11" s="1">
-        <v>-165.352000</v>
+        <v>-165.352</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>82340.214436</v>
+        <v>82340.214435999995</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.872282</v>
+        <v>22.872281999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1351.090000</v>
+        <v>1351.09</v>
       </c>
       <c r="AH11" s="1">
-        <v>-174.120000</v>
+        <v>-174.12</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>82350.715723</v>
+        <v>82350.715723000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>22.875199</v>
+        <v>22.875198999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1370.730000</v>
+        <v>1370.73</v>
       </c>
       <c r="AM11" s="1">
-        <v>-202.644000</v>
+        <v>-202.64400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>82361.087609</v>
+        <v>82361.087608999995</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.878080</v>
+        <v>22.878080000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1391.450000</v>
+        <v>1391.45</v>
       </c>
       <c r="AR11" s="1">
-        <v>-245.094000</v>
+        <v>-245.09399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>82371.784784</v>
+        <v>82371.784784000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.881051</v>
+        <v>22.881050999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1415.050000</v>
+        <v>1415.05</v>
       </c>
       <c r="AW11" s="1">
-        <v>-303.404000</v>
+        <v>-303.404</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>82382.514737</v>
+        <v>82382.514737000005</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.884032</v>
+        <v>22.884032000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB11" s="1">
-        <v>-354.166000</v>
+        <v>-354.166</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>82393.555186</v>
+        <v>82393.555185999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.887099</v>
+        <v>22.887098999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1517.200000</v>
+        <v>1517.2</v>
       </c>
       <c r="BG11" s="1">
-        <v>-595.841000</v>
+        <v>-595.84100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>82404.378884</v>
+        <v>82404.378884000005</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.890105</v>
+        <v>22.890104999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1669.130000</v>
+        <v>1669.13</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1027.500000</v>
+        <v>-1027.5</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>82415.943605</v>
+        <v>82415.943604999993</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.893318</v>
+        <v>22.893318000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1958.100000</v>
+        <v>1958.1</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1772.850000</v>
+        <v>-1772.85</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>82426.918086</v>
+        <v>82426.918086000005</v>
       </c>
       <c r="BT11" s="1">
         <v>22.896366</v>
       </c>
       <c r="BU11" s="1">
-        <v>2335.170000</v>
+        <v>2335.17</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2629.550000</v>
+        <v>-2629.55</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>82437.649927</v>
+        <v>82437.649927000006</v>
       </c>
       <c r="BY11" s="1">
-        <v>22.899347</v>
+        <v>22.899346999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2808.370000</v>
+        <v>2808.37</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3565.480000</v>
+        <v>-3565.48</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>82449.516313</v>
       </c>
       <c r="CD11" s="1">
-        <v>22.902643</v>
+        <v>22.902643000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4178.900000</v>
+        <v>4178.8999999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5801.000000</v>
+        <v>-5801</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>82277.052381</v>
+        <v>82277.052381000001</v>
       </c>
       <c r="B12" s="1">
         <v>22.854737</v>
       </c>
       <c r="C12" s="1">
-        <v>1236.130000</v>
+        <v>1236.1300000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-303.842000</v>
+        <v>-303.84199999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>82287.441086</v>
+        <v>82287.441086000006</v>
       </c>
       <c r="G12" s="1">
         <v>22.857623</v>
       </c>
       <c r="H12" s="1">
-        <v>1261.010000</v>
+        <v>1261.01</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.864000</v>
+        <v>-262.86399999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>82297.927009</v>
+        <v>82297.927009000006</v>
       </c>
       <c r="L12" s="1">
-        <v>22.860535</v>
+        <v>22.860534999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1296.360000</v>
+        <v>1296.3599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.000000</v>
+        <v>-201</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>82308.405493</v>
+        <v>82308.405492999998</v>
       </c>
       <c r="Q12" s="1">
         <v>22.863446</v>
       </c>
       <c r="R12" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.606000</v>
+        <v>-182.60599999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>82318.861157</v>
+        <v>82318.861157000007</v>
       </c>
       <c r="V12" s="1">
-        <v>22.866350</v>
+        <v>22.866350000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1321.460000</v>
+        <v>1321.46</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.717000</v>
+        <v>-168.71700000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>82329.679895</v>
+        <v>82329.679894999994</v>
       </c>
       <c r="AA12" s="1">
         <v>22.869356</v>
       </c>
       <c r="AB12" s="1">
-        <v>1338.620000</v>
+        <v>1338.62</v>
       </c>
       <c r="AC12" s="1">
-        <v>-165.437000</v>
+        <v>-165.43700000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>82340.556665</v>
+        <v>82340.556664999996</v>
       </c>
       <c r="AF12" s="1">
         <v>22.872377</v>
       </c>
       <c r="AG12" s="1">
-        <v>1350.950000</v>
+        <v>1350.95</v>
       </c>
       <c r="AH12" s="1">
-        <v>-174.238000</v>
+        <v>-174.238</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>82351.066394</v>
+        <v>82351.066393999994</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.875296</v>
+        <v>22.875295999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1370.780000</v>
+        <v>1370.78</v>
       </c>
       <c r="AM12" s="1">
-        <v>-202.673000</v>
+        <v>-202.673</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>82361.452125</v>
+        <v>82361.452124999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.878181</v>
+        <v>22.878181000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1391.470000</v>
+        <v>1391.47</v>
       </c>
       <c r="AR12" s="1">
-        <v>-245.097000</v>
+        <v>-245.09700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>82372.148847</v>
+        <v>82372.148847000004</v>
       </c>
       <c r="AU12" s="1">
         <v>22.881152</v>
       </c>
       <c r="AV12" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW12" s="1">
-        <v>-303.383000</v>
+        <v>-303.38299999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>82383.190320</v>
+        <v>82383.190319999994</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.884220</v>
+        <v>22.884219999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB12" s="1">
-        <v>-354.173000</v>
+        <v>-354.173</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>82393.983234</v>
+        <v>82393.983233999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.887218</v>
+        <v>22.887218000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1517.200000</v>
+        <v>1517.2</v>
       </c>
       <c r="BG12" s="1">
-        <v>-595.786000</v>
+        <v>-595.78599999999994</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>82404.841155</v>
+        <v>82404.841155000002</v>
       </c>
       <c r="BJ12" s="1">
         <v>22.890234</v>
       </c>
       <c r="BK12" s="1">
-        <v>1669.140000</v>
+        <v>1669.14</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1027.500000</v>
+        <v>-1027.5</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>82416.361236</v>
+        <v>82416.361235999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.893434</v>
+        <v>22.893433999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1958.260000</v>
+        <v>1958.26</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1772.900000</v>
+        <v>-1772.9</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>82427.348613</v>
+        <v>82427.348612999995</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.896486</v>
+        <v>22.896485999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2335.330000</v>
+        <v>2335.33</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2630.270000</v>
+        <v>-2630.27</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>82438.066663</v>
+        <v>82438.066663000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.899463</v>
+        <v>22.899463000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2809.070000</v>
+        <v>2809.07</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3565.320000</v>
+        <v>-3565.32</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>82450.067401</v>
+        <v>82450.067400999993</v>
       </c>
       <c r="CD12" s="1">
         <v>22.902797</v>
       </c>
       <c r="CE12" s="1">
-        <v>4192.050000</v>
+        <v>4192.05</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5800.390000</v>
+        <v>-5800.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>82277.396108</v>
+        <v>82277.396108000001</v>
       </c>
       <c r="B13" s="1">
-        <v>22.854832</v>
+        <v>22.854831999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1235.820000</v>
+        <v>1235.82</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.775000</v>
+        <v>-303.77499999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>82287.785806</v>
       </c>
       <c r="G13" s="1">
-        <v>22.857718</v>
+        <v>22.857717999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1261.040000</v>
+        <v>1261.04</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.310000</v>
+        <v>-262.31</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>82298.270768</v>
+        <v>82298.270768000002</v>
       </c>
       <c r="L13" s="1">
-        <v>22.860631</v>
+        <v>22.860631000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1296.530000</v>
+        <v>1296.53</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.732000</v>
+        <v>-200.732</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>82309.100418</v>
+        <v>82309.100418000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.863639</v>
+        <v>22.863638999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1308.300000</v>
+        <v>1308.3</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.558000</v>
+        <v>-182.55799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>82319.554564</v>
+        <v>82319.554564000005</v>
       </c>
       <c r="V13" s="1">
         <v>22.866543</v>
       </c>
       <c r="W13" s="1">
-        <v>1321.580000</v>
+        <v>1321.58</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.708000</v>
+        <v>-168.708</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>82330.029078</v>
+        <v>82330.029078000007</v>
       </c>
       <c r="AA13" s="1">
         <v>22.869453</v>
       </c>
       <c r="AB13" s="1">
-        <v>1338.520000</v>
+        <v>1338.52</v>
       </c>
       <c r="AC13" s="1">
-        <v>-165.379000</v>
+        <v>-165.37899999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>82340.897912</v>
       </c>
       <c r="AF13" s="1">
-        <v>22.872472</v>
+        <v>22.872471999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1351.070000</v>
+        <v>1351.07</v>
       </c>
       <c r="AH13" s="1">
-        <v>-174.234000</v>
+        <v>-174.23400000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>82351.413099</v>
+        <v>82351.413098999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.875393</v>
+        <v>22.875392999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1370.760000</v>
+        <v>1370.76</v>
       </c>
       <c r="AM13" s="1">
-        <v>-202.734000</v>
+        <v>-202.73400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>82362.120732</v>
+        <v>82362.120731999996</v>
       </c>
       <c r="AP13" s="1">
-        <v>22.878367</v>
+        <v>22.878367000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1391.440000</v>
+        <v>1391.44</v>
       </c>
       <c r="AR13" s="1">
-        <v>-245.057000</v>
+        <v>-245.05699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>82372.832334</v>
+        <v>82372.832334000006</v>
       </c>
       <c r="AU13" s="1">
         <v>22.881342</v>
       </c>
       <c r="AV13" s="1">
-        <v>1415.050000</v>
+        <v>1415.05</v>
       </c>
       <c r="AW13" s="1">
-        <v>-303.409000</v>
+        <v>-303.40899999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>82383.616847</v>
+        <v>82383.616846999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>22.884338</v>
       </c>
       <c r="BA13" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB13" s="1">
-        <v>-354.150000</v>
+        <v>-354.15</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>82394.361681</v>
+        <v>82394.361680999995</v>
       </c>
       <c r="BE13" s="1">
-        <v>22.887323</v>
+        <v>22.887322999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG13" s="1">
-        <v>-595.822000</v>
+        <v>-595.822</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>82405.231539</v>
@@ -3488,906 +3904,906 @@
         <v>22.890342</v>
       </c>
       <c r="BK13" s="1">
-        <v>1669.040000</v>
+        <v>1669.04</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1027.570000</v>
+        <v>-1027.57</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>82416.758532</v>
+        <v>82416.758532000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>22.893544</v>
+        <v>22.893543999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1958.210000</v>
+        <v>1958.21</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1772.800000</v>
+        <v>-1772.8</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>82427.778149</v>
+        <v>82427.778149000005</v>
       </c>
       <c r="BT13" s="1">
-        <v>22.896605</v>
+        <v>22.896605000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2335.020000</v>
+        <v>2335.02</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2630.670000</v>
+        <v>-2630.67</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>82438.516723</v>
+        <v>82438.516722999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.899588</v>
+        <v>22.899588000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2808.890000</v>
+        <v>2808.89</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3564.870000</v>
+        <v>-3564.87</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>82450.596136</v>
+        <v>82450.596135999993</v>
       </c>
       <c r="CD13" s="1">
         <v>22.902943</v>
       </c>
       <c r="CE13" s="1">
-        <v>4175.410000</v>
+        <v>4175.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5806.410000</v>
+        <v>-5806.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>82277.736396</v>
+        <v>82277.736395999993</v>
       </c>
       <c r="B14" s="1">
         <v>22.854927</v>
       </c>
       <c r="C14" s="1">
-        <v>1235.740000</v>
+        <v>1235.74</v>
       </c>
       <c r="D14" s="1">
-        <v>-303.795000</v>
+        <v>-303.79500000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>82288.473293</v>
+        <v>82288.473293000003</v>
       </c>
       <c r="G14" s="1">
-        <v>22.857909</v>
+        <v>22.857908999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.334000</v>
+        <v>-262.334</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>82298.961664</v>
+        <v>82298.961664000002</v>
       </c>
       <c r="L14" s="1">
         <v>22.860823</v>
       </c>
       <c r="M14" s="1">
-        <v>1296.280000</v>
+        <v>1296.28</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.849000</v>
+        <v>-200.84899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>82309.448577</v>
+        <v>82309.448577000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.863736</v>
+        <v>22.863735999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1308.350000</v>
+        <v>1308.3499999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-182.523000</v>
+        <v>-182.523</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>82320.140835</v>
+        <v>82320.140834999998</v>
       </c>
       <c r="V14" s="1">
-        <v>22.866706</v>
+        <v>22.866706000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1321.410000</v>
+        <v>1321.41</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.773000</v>
+        <v>-168.773</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>82330.378294</v>
+        <v>82330.378293999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.869550</v>
+        <v>22.86955</v>
       </c>
       <c r="AB14" s="1">
-        <v>1338.480000</v>
+        <v>1338.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-165.492000</v>
+        <v>-165.49199999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>82341.555607</v>
+        <v>82341.555607000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.872654</v>
+        <v>22.872654000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1351.060000</v>
+        <v>1351.06</v>
       </c>
       <c r="AH14" s="1">
-        <v>-174.203000</v>
+        <v>-174.203</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>82352.084681</v>
+        <v>82352.084680999993</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.875579</v>
+        <v>22.875578999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1370.750000</v>
+        <v>1370.75</v>
       </c>
       <c r="AM14" s="1">
-        <v>-202.677000</v>
+        <v>-202.67699999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>82362.559195</v>
+        <v>82362.559194999994</v>
       </c>
       <c r="AP14" s="1">
-        <v>22.878489</v>
+        <v>22.878488999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1391.470000</v>
+        <v>1391.47</v>
       </c>
       <c r="AR14" s="1">
-        <v>-245.065000</v>
+        <v>-245.065</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>82373.283197</v>
+        <v>82373.283196999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.881468</v>
+        <v>22.881468000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW14" s="1">
-        <v>-303.386000</v>
+        <v>-303.38600000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>82383.992816</v>
+        <v>82383.992815999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>22.884442</v>
       </c>
       <c r="BA14" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="BB14" s="1">
-        <v>-354.142000</v>
+        <v>-354.142</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>82394.724289</v>
+        <v>82394.724289000005</v>
       </c>
       <c r="BE14" s="1">
-        <v>22.887423</v>
+        <v>22.887422999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1517.170000</v>
+        <v>1517.17</v>
       </c>
       <c r="BG14" s="1">
-        <v>-595.807000</v>
+        <v>-595.80700000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>82405.605988</v>
+        <v>82405.605987999996</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.890446</v>
+        <v>22.890446000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1669.130000</v>
+        <v>1669.13</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1027.520000</v>
+        <v>-1027.52</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>82417.183139</v>
+        <v>82417.183139000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.893662</v>
+        <v>22.893661999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1958.030000</v>
+        <v>1958.03</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1772.790000</v>
+        <v>-1772.79</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>82428.176446</v>
+        <v>82428.176445999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.896716</v>
+        <v>22.896716000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2334.970000</v>
+        <v>2334.9699999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2631.420000</v>
+        <v>-2631.42</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>82438.935160</v>
+        <v>82438.935159999994</v>
       </c>
       <c r="BY14" s="1">
         <v>22.899704</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2808.820000</v>
+        <v>2808.82</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3565.360000</v>
+        <v>-3565.36</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>82451.116439</v>
+        <v>82451.116439000005</v>
       </c>
       <c r="CD14" s="1">
         <v>22.903088</v>
       </c>
       <c r="CE14" s="1">
-        <v>4184.000000</v>
+        <v>4184</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5820.510000</v>
+        <v>-5820.51</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>82278.418363</v>
+        <v>82278.418363000004</v>
       </c>
       <c r="B15" s="1">
-        <v>22.855116</v>
+        <v>22.855115999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1235.890000</v>
+        <v>1235.8900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-303.714000</v>
+        <v>-303.714</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>82288.820460</v>
+        <v>82288.820460000003</v>
       </c>
       <c r="G15" s="1">
         <v>22.858006</v>
       </c>
       <c r="H15" s="1">
-        <v>1260.230000</v>
+        <v>1260.23</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.228000</v>
+        <v>-262.22800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>82299.304896</v>
+        <v>82299.304896000001</v>
       </c>
       <c r="L15" s="1">
-        <v>22.860918</v>
+        <v>22.860918000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1296.610000</v>
+        <v>1296.6099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.057000</v>
+        <v>-201.05699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>82309.798294</v>
+        <v>82309.798293999993</v>
       </c>
       <c r="Q15" s="1">
         <v>22.863833</v>
       </c>
       <c r="R15" s="1">
-        <v>1308.370000</v>
+        <v>1308.3699999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.511000</v>
+        <v>-182.511</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>82320.584755</v>
+        <v>82320.584755000003</v>
       </c>
       <c r="V15" s="1">
-        <v>22.866829</v>
+        <v>22.866828999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1321.480000</v>
+        <v>1321.48</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.615000</v>
+        <v>-168.61500000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>82331.036479</v>
+        <v>82331.036479000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.869732</v>
+        <v>22.869731999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1338.510000</v>
+        <v>1338.51</v>
       </c>
       <c r="AC15" s="1">
-        <v>-165.537000</v>
+        <v>-165.53700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>82341.928102</v>
+        <v>82341.928102000005</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.872758</v>
+        <v>22.872758000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1350.980000</v>
+        <v>1350.98</v>
       </c>
       <c r="AH15" s="1">
-        <v>-174.184000</v>
+        <v>-174.184</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>82352.460155</v>
+        <v>82352.460154999993</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.875683</v>
+        <v>22.875682999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1370.750000</v>
+        <v>1370.75</v>
       </c>
       <c r="AM15" s="1">
-        <v>-202.704000</v>
+        <v>-202.70400000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>82362.915819</v>
+        <v>82362.915819000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.878588</v>
+        <v>22.878588000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1391.470000</v>
+        <v>1391.47</v>
       </c>
       <c r="AR15" s="1">
-        <v>-245.066000</v>
+        <v>-245.066</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>82373.633373</v>
+        <v>82373.633373000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>22.881565</v>
+        <v>22.881564999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW15" s="1">
-        <v>-303.410000</v>
+        <v>-303.41000000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>82384.354895</v>
+        <v>82384.354894999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.884543</v>
+        <v>22.884543000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="BB15" s="1">
-        <v>-354.131000</v>
+        <v>-354.13099999999997</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>82395.157792</v>
+        <v>82395.157791999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.887544</v>
+        <v>22.887543999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1517.200000</v>
+        <v>1517.2</v>
       </c>
       <c r="BG15" s="1">
-        <v>-595.819000</v>
+        <v>-595.81899999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>82406.030589</v>
+        <v>82406.030589000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.890564</v>
+        <v>22.890564000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1669.020000</v>
+        <v>1669.02</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1027.530000</v>
+        <v>-1027.53</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>82417.576434</v>
+        <v>82417.576434000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.893771</v>
+        <v>22.893771000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1958.110000</v>
+        <v>1958.11</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1772.820000</v>
+        <v>-1772.82</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>82428.592084</v>
+        <v>82428.592084000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.896831</v>
+        <v>22.896830999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2335.180000</v>
+        <v>2335.1799999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2631.690000</v>
+        <v>-2631.69</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>82439.360230</v>
+        <v>82439.360230000006</v>
       </c>
       <c r="BY15" s="1">
         <v>22.899822</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2809.060000</v>
+        <v>2809.06</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3565.300000</v>
+        <v>-3565.3</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>82451.633238</v>
+        <v>82451.633237999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.903231</v>
+        <v>22.903231000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>4195.780000</v>
+        <v>4195.78</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5811.090000</v>
+        <v>-5811.09</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>82278.764149</v>
+        <v>82278.764148999995</v>
       </c>
       <c r="B16" s="1">
-        <v>22.855212</v>
+        <v>22.855212000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1236.110000</v>
+        <v>1236.1099999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-303.993000</v>
+        <v>-303.99299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>82289.165180</v>
+        <v>82289.165179999996</v>
       </c>
       <c r="G16" s="1">
-        <v>22.858101</v>
+        <v>22.858101000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="I16" s="1">
-        <v>-262.324000</v>
+        <v>-262.32400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>82299.656559</v>
+        <v>82299.656558999995</v>
       </c>
       <c r="L16" s="1">
-        <v>22.861016</v>
+        <v>22.861015999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1296.430000</v>
+        <v>1296.43</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.542000</v>
+        <v>-200.542</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>82310.469377</v>
+        <v>82310.469377000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.864019</v>
+        <v>22.864018999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-182.599000</v>
+        <v>-182.59899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>82321.035618</v>
+        <v>82321.035617999994</v>
       </c>
       <c r="V16" s="1">
         <v>22.866954</v>
       </c>
       <c r="W16" s="1">
-        <v>1321.470000</v>
+        <v>1321.47</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.626000</v>
+        <v>-168.626</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>82331.423828</v>
+        <v>82331.423827999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.869840</v>
+        <v>22.86984</v>
       </c>
       <c r="AB16" s="1">
-        <v>1338.550000</v>
+        <v>1338.55</v>
       </c>
       <c r="AC16" s="1">
-        <v>-165.483000</v>
+        <v>-165.483</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>82342.271830</v>
+        <v>82342.271829999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.872853</v>
+        <v>22.872852999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1351.050000</v>
+        <v>1351.05</v>
       </c>
       <c r="AH16" s="1">
-        <v>-174.179000</v>
+        <v>-174.179</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>82352.808344</v>
+        <v>82352.808344000005</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.875780</v>
+        <v>22.875779999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1370.770000</v>
+        <v>1370.77</v>
       </c>
       <c r="AM16" s="1">
-        <v>-202.661000</v>
+        <v>-202.661</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>82363.280907</v>
+        <v>82363.280906999993</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.878689</v>
+        <v>22.878689000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1391.430000</v>
+        <v>1391.43</v>
       </c>
       <c r="AR16" s="1">
-        <v>-245.079000</v>
+        <v>-245.07900000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>82374.264285</v>
+        <v>82374.264284999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.881740</v>
+        <v>22.881740000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="AW16" s="1">
-        <v>-303.377000</v>
+        <v>-303.37700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>82384.778975</v>
+        <v>82384.778974999994</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.884661</v>
+        <v>22.884661000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1433.780000</v>
+        <v>1433.78</v>
       </c>
       <c r="BB16" s="1">
-        <v>-354.143000</v>
+        <v>-354.14299999999997</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>82395.445440</v>
+        <v>82395.445439999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.887624</v>
+        <v>22.887623999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-595.790000</v>
+        <v>-595.79</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>82406.358418</v>
+        <v>82406.358418000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.890655</v>
+        <v>22.890654999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1669.020000</v>
+        <v>1669.02</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1027.430000</v>
+        <v>-1027.43</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>82417.997538</v>
+        <v>82417.997537999996</v>
       </c>
       <c r="BO16" s="1">
         <v>22.893888</v>
       </c>
       <c r="BP16" s="1">
-        <v>1958.180000</v>
+        <v>1958.18</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1772.750000</v>
+        <v>-1772.75</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>82429.005251</v>
+        <v>82429.005250999995</v>
       </c>
       <c r="BT16" s="1">
         <v>22.896946</v>
       </c>
       <c r="BU16" s="1">
-        <v>2335.670000</v>
+        <v>2335.67</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2632.320000</v>
+        <v>-2632.32</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>82439.805141</v>
+        <v>82439.805141000004</v>
       </c>
       <c r="BY16" s="1">
         <v>22.899946</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2809.110000</v>
+        <v>2809.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3565.380000</v>
+        <v>-3565.38</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>82452.152085</v>
+        <v>82452.152084999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>22.903376</v>
+        <v>22.903376000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4192.470000</v>
+        <v>4192.47</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5813.670000</v>
+        <v>-5813.67</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>82279.101386</v>
+        <v>82279.101385999995</v>
       </c>
       <c r="B17" s="1">
-        <v>22.855306</v>
+        <v>22.855305999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.869000</v>
+        <v>-303.86900000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>82289.824364</v>
       </c>
       <c r="G17" s="1">
-        <v>22.858285</v>
+        <v>22.858284999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1260.980000</v>
+        <v>1260.98</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.376000</v>
+        <v>-262.37599999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>82300.303374</v>
+        <v>82300.303373999996</v>
       </c>
       <c r="L17" s="1">
-        <v>22.861195</v>
+        <v>22.861194999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1296.360000</v>
+        <v>1296.3599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.620000</v>
+        <v>-200.62</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>82310.844816</v>
+        <v>82310.844815999997</v>
       </c>
       <c r="Q17" s="1">
         <v>22.864124</v>
       </c>
       <c r="R17" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.586000</v>
+        <v>-182.58600000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>82321.282626</v>
@@ -4396,453 +4812,453 @@
         <v>22.867023</v>
       </c>
       <c r="W17" s="1">
-        <v>1321.610000</v>
+        <v>1321.61</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.606000</v>
+        <v>-168.60599999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>82331.772020</v>
+        <v>82331.772020000004</v>
       </c>
       <c r="AA17" s="1">
         <v>22.869937</v>
       </c>
       <c r="AB17" s="1">
-        <v>1338.570000</v>
+        <v>1338.57</v>
       </c>
       <c r="AC17" s="1">
-        <v>-165.311000</v>
+        <v>-165.31100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>82342.617046</v>
+        <v>82342.617045999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>22.872949</v>
+        <v>22.872948999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1351.030000</v>
+        <v>1351.03</v>
       </c>
       <c r="AH17" s="1">
-        <v>-174.222000</v>
+        <v>-174.22200000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>82353.159016</v>
+        <v>82353.159016000005</v>
       </c>
       <c r="AK17" s="1">
         <v>22.875878</v>
       </c>
       <c r="AL17" s="1">
-        <v>1370.750000</v>
+        <v>1370.75</v>
       </c>
       <c r="AM17" s="1">
-        <v>-202.655000</v>
+        <v>-202.655</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>82363.713920</v>
+        <v>82363.713919999995</v>
       </c>
       <c r="AP17" s="1">
         <v>22.878809</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1391.440000</v>
+        <v>1391.44</v>
       </c>
       <c r="AR17" s="1">
-        <v>-245.054000</v>
+        <v>-245.054</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>82374.383332</v>
+        <v>82374.383331999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>22.881773</v>
+        <v>22.881772999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW17" s="1">
-        <v>-303.379000</v>
+        <v>-303.37900000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>82385.070126</v>
+        <v>82385.070126000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.884742</v>
+        <v>22.884741999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1433.760000</v>
+        <v>1433.76</v>
       </c>
       <c r="BB17" s="1">
-        <v>-354.168000</v>
+        <v>-354.16800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>82395.809535</v>
+        <v>82395.809534999993</v>
       </c>
       <c r="BE17" s="1">
         <v>22.887725</v>
       </c>
       <c r="BF17" s="1">
-        <v>1517.220000</v>
+        <v>1517.22</v>
       </c>
       <c r="BG17" s="1">
-        <v>-595.812000</v>
+        <v>-595.81200000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>82406.739841</v>
+        <v>82406.739841000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.890761</v>
+        <v>22.890761000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1669.070000</v>
+        <v>1669.07</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1027.520000</v>
+        <v>-1027.52</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>82418.394843</v>
+        <v>82418.394843000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>22.893999</v>
+        <v>22.893999000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1957.990000</v>
+        <v>1957.99</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1772.800000</v>
+        <v>-1772.8</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>82429.429331</v>
+        <v>82429.429331000007</v>
       </c>
       <c r="BT17" s="1">
         <v>22.897064</v>
       </c>
       <c r="BU17" s="1">
-        <v>2336.030000</v>
+        <v>2336.0300000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2632.680000</v>
+        <v>-2632.68</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>82440.242116</v>
+        <v>82440.242115999994</v>
       </c>
       <c r="BY17" s="1">
         <v>22.900067</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2809.180000</v>
+        <v>2809.18</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3564.710000</v>
+        <v>-3564.71</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>82452.704596</v>
+        <v>82452.704595999996</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.903529</v>
+        <v>22.903528999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4183.200000</v>
+        <v>4183.2</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5819.320000</v>
+        <v>-5819.32</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>82279.761561</v>
+        <v>82279.761561000007</v>
       </c>
       <c r="B18" s="1">
-        <v>22.855489</v>
+        <v>22.855488999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1236.000000</v>
+        <v>1236</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.848000</v>
+        <v>-303.84800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>82290.189915</v>
+        <v>82290.189914999995</v>
       </c>
       <c r="G18" s="1">
-        <v>22.858386</v>
+        <v>22.858385999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1261.500000</v>
+        <v>1261.5</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.657000</v>
+        <v>-262.65699999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>82300.690750</v>
+        <v>82300.690749999994</v>
       </c>
       <c r="L18" s="1">
-        <v>22.861303</v>
+        <v>22.861302999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1296.250000</v>
+        <v>1296.25</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.768000</v>
+        <v>-200.768</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>82311.193999</v>
+        <v>82311.193998999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.864221</v>
+        <v>22.864221000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1308.330000</v>
+        <v>1308.33</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.584000</v>
+        <v>-182.584</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>82321.626850</v>
+        <v>82321.626850000001</v>
       </c>
       <c r="V18" s="1">
-        <v>22.867119</v>
+        <v>22.867118999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1321.660000</v>
+        <v>1321.66</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.581000</v>
+        <v>-168.58099999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>82332.122195</v>
+        <v>82332.122195000004</v>
       </c>
       <c r="AA18" s="1">
         <v>22.870034</v>
       </c>
       <c r="AB18" s="1">
-        <v>1338.360000</v>
+        <v>1338.36</v>
       </c>
       <c r="AC18" s="1">
-        <v>-165.282000</v>
+        <v>-165.28200000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>82343.038181</v>
+        <v>82343.038180999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.873066</v>
+        <v>22.873066000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1351.050000</v>
+        <v>1351.05</v>
       </c>
       <c r="AH18" s="1">
-        <v>-174.256000</v>
+        <v>-174.256</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>82353.589544</v>
+        <v>82353.589544000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.875997</v>
+        <v>22.875997000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1370.750000</v>
+        <v>1370.75</v>
       </c>
       <c r="AM18" s="1">
-        <v>-202.671000</v>
+        <v>-202.67099999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>82363.997129</v>
+        <v>82363.997128999996</v>
       </c>
       <c r="AP18" s="1">
         <v>22.878888</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1391.450000</v>
+        <v>1391.45</v>
       </c>
       <c r="AR18" s="1">
-        <v>-245.058000</v>
+        <v>-245.05799999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>82374.727051</v>
+        <v>82374.727050999994</v>
       </c>
       <c r="AU18" s="1">
-        <v>22.881869</v>
+        <v>22.881868999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="AW18" s="1">
-        <v>-303.367000</v>
+        <v>-303.36700000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>82385.430221</v>
+        <v>82385.430221000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.884842</v>
+        <v>22.884841999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-354.128000</v>
+        <v>-354.12799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>82396.170394</v>
+        <v>82396.170394000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.887825</v>
+        <v>22.887824999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1517.170000</v>
+        <v>1517.17</v>
       </c>
       <c r="BG18" s="1">
-        <v>-595.795000</v>
+        <v>-595.79499999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>82407.129200</v>
+        <v>82407.129199999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>22.890869</v>
+        <v>22.890868999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1669.000000</v>
+        <v>1669</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1027.430000</v>
+        <v>-1027.43</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>82418.818179</v>
+        <v>82418.818178999994</v>
       </c>
       <c r="BO18" s="1">
         <v>22.894116</v>
       </c>
       <c r="BP18" s="1">
-        <v>1958.120000</v>
+        <v>1958.12</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1772.740000</v>
+        <v>-1772.74</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>82429.836546</v>
+        <v>82429.836546000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>22.897177</v>
+        <v>22.897176999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2336.570000</v>
+        <v>2336.5700000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2632.930000</v>
+        <v>-2632.93</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>82440.659252</v>
+        <v>82440.659251999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>22.900183</v>
+        <v>22.900182999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2808.140000</v>
+        <v>2808.14</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3565.070000</v>
+        <v>-3565.07</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>82453.235811</v>
+        <v>82453.235811000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.903677</v>
+        <v>22.903676999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>4194.130000</v>
+        <v>4194.13</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5810.590000</v>
+        <v>-5810.59</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>82280.128568</v>
       </c>
@@ -4850,1086 +5266,1086 @@
         <v>22.855591</v>
       </c>
       <c r="C19" s="1">
-        <v>1235.970000</v>
+        <v>1235.97</v>
       </c>
       <c r="D19" s="1">
-        <v>-303.702000</v>
+        <v>-303.702</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>82290.544554</v>
+        <v>82290.544553999993</v>
       </c>
       <c r="G19" s="1">
-        <v>22.858485</v>
+        <v>22.858485000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="I19" s="1">
-        <v>-262.478000</v>
+        <v>-262.47800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>82301.038414</v>
+        <v>82301.038413999995</v>
       </c>
       <c r="L19" s="1">
-        <v>22.861400</v>
+        <v>22.8614</v>
       </c>
       <c r="M19" s="1">
-        <v>1296.320000</v>
+        <v>1296.32</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.642000</v>
+        <v>-200.642</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>82311.543183</v>
+        <v>82311.543183000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.864318</v>
+        <v>22.864318000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1308.390000</v>
+        <v>1308.3900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.546000</v>
+        <v>-182.54599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>82322.048450</v>
+        <v>82322.048450000002</v>
       </c>
       <c r="V19" s="1">
-        <v>22.867236</v>
+        <v>22.867235999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1321.570000</v>
+        <v>1321.57</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.567000</v>
+        <v>-168.56700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>82332.549747</v>
+        <v>82332.549746999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.870153</v>
+        <v>22.870152999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1338.500000</v>
+        <v>1338.5</v>
       </c>
       <c r="AC19" s="1">
-        <v>-165.421000</v>
+        <v>-165.42099999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>82343.326821</v>
+        <v>82343.326820999995</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.873146</v>
+        <v>22.873145999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1351.080000</v>
+        <v>1351.08</v>
       </c>
       <c r="AH19" s="1">
-        <v>-174.210000</v>
+        <v>-174.21</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>82353.866311</v>
+        <v>82353.866311000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.876074</v>
+        <v>22.876073999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1370.760000</v>
+        <v>1370.76</v>
       </c>
       <c r="AM19" s="1">
-        <v>-202.672000</v>
+        <v>-202.672</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>82364.357224</v>
+        <v>82364.357224000007</v>
       </c>
       <c r="AP19" s="1">
         <v>22.878988</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1391.430000</v>
+        <v>1391.43</v>
       </c>
       <c r="AR19" s="1">
-        <v>-245.099000</v>
+        <v>-245.09899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>82375.091612</v>
+        <v>82375.091612000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>22.881970</v>
+        <v>22.881969999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1415.060000</v>
+        <v>1415.06</v>
       </c>
       <c r="AW19" s="1">
-        <v>-303.375000</v>
+        <v>-303.375</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>82385.789326</v>
+        <v>82385.789325999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>22.884941</v>
+        <v>22.884941000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB19" s="1">
-        <v>-354.125000</v>
+        <v>-354.125</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>82396.889790</v>
+        <v>82396.889790000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.888025</v>
+        <v>22.888024999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1517.180000</v>
+        <v>1517.18</v>
       </c>
       <c r="BG19" s="1">
-        <v>-595.844000</v>
+        <v>-595.84400000000005</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>82407.878655</v>
+        <v>82407.878654999993</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.891077</v>
+        <v>22.891076999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1669.040000</v>
+        <v>1669.04</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1027.490000</v>
+        <v>-1027.49</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>82419.214225</v>
+        <v>82419.214225000003</v>
       </c>
       <c r="BO19" s="1">
         <v>22.894226</v>
       </c>
       <c r="BP19" s="1">
-        <v>1958.020000</v>
+        <v>1958.02</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1772.680000</v>
+        <v>-1772.68</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>82430.252690</v>
+        <v>82430.252689999994</v>
       </c>
       <c r="BT19" s="1">
         <v>22.897292</v>
       </c>
       <c r="BU19" s="1">
-        <v>2337.210000</v>
+        <v>2337.21</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2632.840000</v>
+        <v>-2632.84</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>82441.102180</v>
+        <v>82441.102180000002</v>
       </c>
       <c r="BY19" s="1">
         <v>22.900306</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2809.080000</v>
+        <v>2809.08</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3565.110000</v>
+        <v>-3565.11</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>82454.076530</v>
+        <v>82454.076530000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.903910</v>
+        <v>22.90391</v>
       </c>
       <c r="CE19" s="1">
-        <v>4184.920000</v>
+        <v>4184.92</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5801.360000</v>
+        <v>-5801.36</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>82280.473319</v>
+        <v>82280.473318999997</v>
       </c>
       <c r="B20" s="1">
         <v>22.855687</v>
       </c>
       <c r="C20" s="1">
-        <v>1235.910000</v>
+        <v>1235.9100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-303.628000</v>
+        <v>-303.62799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>82290.886794</v>
+        <v>82290.886794000005</v>
       </c>
       <c r="G20" s="1">
-        <v>22.858580</v>
+        <v>22.85858</v>
       </c>
       <c r="H20" s="1">
-        <v>1261.050000</v>
+        <v>1261.05</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.232000</v>
+        <v>-262.23200000000003</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>82301.383628</v>
+        <v>82301.383627999996</v>
       </c>
       <c r="L20" s="1">
-        <v>22.861495</v>
+        <v>22.861495000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1296.300000</v>
+        <v>1296.3</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.828000</v>
+        <v>-200.828</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>82311.960318</v>
+        <v>82311.960317999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>22.864433</v>
+        <v>22.864432999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1308.350000</v>
+        <v>1308.3499999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.464000</v>
+        <v>-182.464</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>82322.321249</v>
+        <v>82322.321249000001</v>
       </c>
       <c r="V20" s="1">
-        <v>22.867311</v>
+        <v>22.867311000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1321.550000</v>
+        <v>1321.55</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.582000</v>
+        <v>-168.58199999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>82332.830979</v>
+        <v>82332.830979000006</v>
       </c>
       <c r="AA20" s="1">
         <v>22.870231</v>
       </c>
       <c r="AB20" s="1">
-        <v>1338.500000</v>
+        <v>1338.5</v>
       </c>
       <c r="AC20" s="1">
-        <v>-165.377000</v>
+        <v>-165.37700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>82343.671045</v>
+        <v>82343.671044999996</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.873242</v>
+        <v>22.873242000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1351.030000</v>
+        <v>1351.03</v>
       </c>
       <c r="AH20" s="1">
-        <v>-174.254000</v>
+        <v>-174.25399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>82354.211526</v>
+        <v>82354.211525999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.876170</v>
+        <v>22.876169999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1370.760000</v>
+        <v>1370.76</v>
       </c>
       <c r="AM20" s="1">
-        <v>-202.694000</v>
+        <v>-202.69399999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>82364.721262</v>
+        <v>82364.721262000006</v>
       </c>
       <c r="AP20" s="1">
         <v>22.879089</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1391.490000</v>
+        <v>1391.49</v>
       </c>
       <c r="AR20" s="1">
-        <v>-245.054000</v>
+        <v>-245.054</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>82375.819242</v>
+        <v>82375.819241999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.882172</v>
+        <v>22.882172000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1415.030000</v>
+        <v>1415.03</v>
       </c>
       <c r="AW20" s="1">
-        <v>-303.394000</v>
+        <v>-303.39400000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>82386.508524</v>
+        <v>82386.508524000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>22.885141</v>
+        <v>22.885141000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1433.800000</v>
+        <v>1433.8</v>
       </c>
       <c r="BB20" s="1">
-        <v>-354.109000</v>
+        <v>-354.10899999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>82397.251413</v>
+        <v>82397.251413000005</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.888125</v>
+        <v>22.888124999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG20" s="1">
-        <v>-595.777000</v>
+        <v>-595.77700000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>82408.343407</v>
+        <v>82408.343406999993</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.891207</v>
+        <v>22.891207000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1669.120000</v>
+        <v>1669.12</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1027.440000</v>
+        <v>-1027.44</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>82419.632848</v>
+        <v>82419.632847999994</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.894342</v>
+        <v>22.894342000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1958.020000</v>
+        <v>1958.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1772.660000</v>
+        <v>-1772.66</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>82430.988785</v>
+        <v>82430.988784999994</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.897497</v>
+        <v>22.897497000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2337.570000</v>
+        <v>2337.5700000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2632.820000</v>
+        <v>-2632.82</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>82441.852626</v>
+        <v>82441.852626000007</v>
       </c>
       <c r="BY20" s="1">
-        <v>22.900515</v>
+        <v>22.900514999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2808.890000</v>
+        <v>2808.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3564.660000</v>
+        <v>-3564.66</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>82454.271955</v>
+        <v>82454.271955000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.903964</v>
+        <v>22.903963999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>4177.350000</v>
+        <v>4177.3500000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5812.390000</v>
+        <v>-5812.39</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>82280.816023</v>
+        <v>82280.816023000007</v>
       </c>
       <c r="B21" s="1">
-        <v>22.855782</v>
+        <v>22.855782000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1235.790000</v>
+        <v>1235.79</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.904000</v>
+        <v>-303.904</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>82291.304923</v>
+        <v>82291.304923000003</v>
       </c>
       <c r="G21" s="1">
-        <v>22.858696</v>
+        <v>22.858695999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1260.540000</v>
+        <v>1260.54</v>
       </c>
       <c r="I21" s="1">
-        <v>-262.840000</v>
+        <v>-262.83999999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>82301.828539</v>
+        <v>82301.828538999995</v>
       </c>
       <c r="L21" s="1">
-        <v>22.861619</v>
+        <v>22.861619000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1296.400000</v>
+        <v>1296.4000000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.711000</v>
+        <v>-200.71100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>82312.250478</v>
+        <v>82312.250478000002</v>
       </c>
       <c r="Q21" s="1">
         <v>22.864514</v>
       </c>
       <c r="R21" s="1">
-        <v>1308.400000</v>
+        <v>1308.4000000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.500000</v>
+        <v>-182.5</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>82322.663985</v>
+        <v>82322.663985000007</v>
       </c>
       <c r="V21" s="1">
         <v>22.867407</v>
       </c>
       <c r="W21" s="1">
-        <v>1321.560000</v>
+        <v>1321.56</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.625000</v>
+        <v>-168.625</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>82333.179666</v>
+        <v>82333.179665999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.870328</v>
+        <v>22.870328000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1338.560000</v>
+        <v>1338.56</v>
       </c>
       <c r="AC21" s="1">
-        <v>-165.303000</v>
+        <v>-165.303</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>82344.016260</v>
+        <v>82344.016260000004</v>
       </c>
       <c r="AF21" s="1">
         <v>22.873338</v>
       </c>
       <c r="AG21" s="1">
-        <v>1351.010000</v>
+        <v>1351.01</v>
       </c>
       <c r="AH21" s="1">
-        <v>-174.161000</v>
+        <v>-174.161</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>82354.567158</v>
+        <v>82354.567158000005</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.876269</v>
+        <v>22.876269000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1370.720000</v>
+        <v>1370.72</v>
       </c>
       <c r="AM21" s="1">
-        <v>-202.681000</v>
+        <v>-202.68100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>82365.445912</v>
+        <v>82365.445911999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.879291</v>
+        <v>22.879290999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1391.440000</v>
+        <v>1391.44</v>
       </c>
       <c r="AR21" s="1">
-        <v>-245.033000</v>
+        <v>-245.03299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>82376.207113</v>
+        <v>82376.207112999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.882280</v>
+        <v>22.882280000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="AW21" s="1">
-        <v>-303.377000</v>
+        <v>-303.37700000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>82386.887741</v>
+        <v>82386.887740999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>22.885247</v>
       </c>
       <c r="BA21" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB21" s="1">
-        <v>-354.142000</v>
+        <v>-354.142</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>82397.613987</v>
+        <v>82397.613987000004</v>
       </c>
       <c r="BE21" s="1">
         <v>22.888226</v>
       </c>
       <c r="BF21" s="1">
-        <v>1517.180000</v>
+        <v>1517.18</v>
       </c>
       <c r="BG21" s="1">
-        <v>-595.815000</v>
+        <v>-595.81500000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>82409.001598</v>
+        <v>82409.001598000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.891389</v>
       </c>
       <c r="BK21" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1027.450000</v>
+        <v>-1027.45</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>82420.348079</v>
+        <v>82420.348079000003</v>
       </c>
       <c r="BO21" s="1">
         <v>22.894541</v>
       </c>
       <c r="BP21" s="1">
-        <v>1957.800000</v>
+        <v>1957.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1772.770000</v>
+        <v>-1772.77</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>82431.096385</v>
+        <v>82431.096384999997</v>
       </c>
       <c r="BT21" s="1">
         <v>22.897527</v>
       </c>
       <c r="BU21" s="1">
-        <v>2338.330000</v>
+        <v>2338.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2632.400000</v>
+        <v>-2632.4</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>82441.969682</v>
+        <v>82441.969681999995</v>
       </c>
       <c r="BY21" s="1">
         <v>22.900547</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2808.710000</v>
+        <v>2808.71</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3564.860000</v>
+        <v>-3564.86</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>82454.788787</v>
+        <v>82454.788786999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.904108</v>
+        <v>22.904108000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4174.570000</v>
+        <v>4174.57</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5808.640000</v>
+        <v>-5808.64</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>82281.237128</v>
+        <v>82281.237127999993</v>
       </c>
       <c r="B22" s="1">
-        <v>22.855899</v>
+        <v>22.855899000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1235.780000</v>
+        <v>1235.78</v>
       </c>
       <c r="D22" s="1">
-        <v>-304.120000</v>
+        <v>-304.12</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>82291.585657</v>
+        <v>82291.585657000003</v>
       </c>
       <c r="G22" s="1">
         <v>22.858774</v>
       </c>
       <c r="H22" s="1">
-        <v>1260.960000</v>
+        <v>1260.96</v>
       </c>
       <c r="I22" s="1">
-        <v>-262.847000</v>
+        <v>-262.84699999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>82302.096379</v>
+        <v>82302.096378999995</v>
       </c>
       <c r="L22" s="1">
-        <v>22.861693</v>
+        <v>22.861692999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1296.190000</v>
+        <v>1296.19</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.632000</v>
+        <v>-200.63200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>82312.600157</v>
+        <v>82312.600156999993</v>
       </c>
       <c r="Q22" s="1">
         <v>22.864611</v>
       </c>
       <c r="R22" s="1">
-        <v>1308.430000</v>
+        <v>1308.43</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.548000</v>
+        <v>-182.548</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>82323.011184</v>
+        <v>82323.011184000003</v>
       </c>
       <c r="V22" s="1">
-        <v>22.867503</v>
+        <v>22.867502999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1321.550000</v>
+        <v>1321.55</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.584000</v>
+        <v>-168.584</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>82333.527858</v>
+        <v>82333.527858000001</v>
       </c>
       <c r="AA22" s="1">
         <v>22.870424</v>
       </c>
       <c r="AB22" s="1">
-        <v>1338.430000</v>
+        <v>1338.43</v>
       </c>
       <c r="AC22" s="1">
-        <v>-165.381000</v>
+        <v>-165.381</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>82344.700739</v>
+        <v>82344.700739000007</v>
       </c>
       <c r="AF22" s="1">
         <v>22.873528</v>
       </c>
       <c r="AG22" s="1">
-        <v>1351.080000</v>
+        <v>1351.08</v>
       </c>
       <c r="AH22" s="1">
-        <v>-174.203000</v>
+        <v>-174.203</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>82355.302757</v>
+        <v>82355.302756999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.876473</v>
+        <v>22.876473000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1370.760000</v>
+        <v>1370.76</v>
       </c>
       <c r="AM22" s="1">
-        <v>-202.667000</v>
+        <v>-202.667</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>82365.823368</v>
+        <v>82365.823367999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>22.879395</v>
+        <v>22.879394999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1391.450000</v>
+        <v>1391.45</v>
       </c>
       <c r="AR22" s="1">
-        <v>-245.050000</v>
+        <v>-245.05</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>82376.570185</v>
+        <v>82376.570185000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.882381</v>
+        <v>22.882380999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1415.070000</v>
+        <v>1415.07</v>
       </c>
       <c r="AW22" s="1">
-        <v>-303.410000</v>
+        <v>-303.41000000000003</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>82387.266934</v>
+        <v>82387.266933999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>22.885352</v>
+        <v>22.885352000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB22" s="1">
-        <v>-354.162000</v>
+        <v>-354.16199999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>82398.295453</v>
+        <v>82398.295452999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.888415</v>
+        <v>22.888414999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1517.200000</v>
+        <v>1517.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>-595.793000</v>
+        <v>-595.79300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>82409.436590</v>
+        <v>82409.436589999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.891510</v>
+        <v>22.89151</v>
       </c>
       <c r="BK22" s="1">
-        <v>1669.060000</v>
+        <v>1669.06</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1027.460000</v>
+        <v>-1027.46</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>82420.468608</v>
+        <v>82420.468607999996</v>
       </c>
       <c r="BO22" s="1">
         <v>22.894575</v>
       </c>
       <c r="BP22" s="1">
-        <v>1957.900000</v>
+        <v>1957.9</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1772.800000</v>
+        <v>-1772.8</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>82431.508592</v>
+        <v>82431.508591999998</v>
       </c>
       <c r="BT22" s="1">
         <v>22.897641</v>
       </c>
       <c r="BU22" s="1">
-        <v>2339.080000</v>
+        <v>2339.08</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2632.060000</v>
+        <v>-2632.06</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>82442.536146</v>
+        <v>82442.536145999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.900704</v>
+        <v>22.900704000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2808.790000</v>
+        <v>2808.79</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3564.300000</v>
+        <v>-3564.3</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>82455.340368</v>
+        <v>82455.340368000005</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.904261</v>
+        <v>22.904261000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4181.860000</v>
+        <v>4181.8599999999997</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5801.830000</v>
+        <v>-5801.83</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>82281.513792</v>
+        <v>82281.513791999998</v>
       </c>
       <c r="B23" s="1">
-        <v>22.855976</v>
+        <v>22.855975999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1235.680000</v>
+        <v>1235.68</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.681000</v>
+        <v>-303.68099999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>82291.929706</v>
+        <v>82291.929705999995</v>
       </c>
       <c r="G23" s="1">
-        <v>22.858869</v>
+        <v>22.858868999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1260.580000</v>
+        <v>1260.58</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.838000</v>
+        <v>-261.83800000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>82302.442092</v>
+        <v>82302.442091999998</v>
       </c>
       <c r="L23" s="1">
-        <v>22.861789</v>
+        <v>22.861789000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1296.450000</v>
+        <v>1296.45</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.810000</v>
+        <v>-200.81</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>82312.948883</v>
+        <v>82312.948883000005</v>
       </c>
       <c r="Q23" s="1">
         <v>22.864708</v>
       </c>
       <c r="R23" s="1">
-        <v>1308.360000</v>
+        <v>1308.3599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.667000</v>
+        <v>-182.667</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>82323.697151</v>
@@ -5938,103 +6354,103 @@
         <v>22.867694</v>
       </c>
       <c r="W23" s="1">
-        <v>1321.450000</v>
+        <v>1321.45</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.624000</v>
+        <v>-168.624</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>82334.223745</v>
+        <v>82334.223744999996</v>
       </c>
       <c r="AA23" s="1">
         <v>22.870618</v>
       </c>
       <c r="AB23" s="1">
-        <v>1338.580000</v>
+        <v>1338.58</v>
       </c>
       <c r="AC23" s="1">
-        <v>-165.419000</v>
+        <v>-165.41900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>82345.045458</v>
+        <v>82345.045457999993</v>
       </c>
       <c r="AF23" s="1">
         <v>22.873624</v>
       </c>
       <c r="AG23" s="1">
-        <v>1351.070000</v>
+        <v>1351.07</v>
       </c>
       <c r="AH23" s="1">
-        <v>-174.189000</v>
+        <v>-174.18899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>82355.610246</v>
+        <v>82355.610245999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.876558</v>
+        <v>22.876557999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1370.780000</v>
+        <v>1370.78</v>
       </c>
       <c r="AM23" s="1">
-        <v>-202.673000</v>
+        <v>-202.673</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>82366.178998</v>
+        <v>82366.178998000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.879494</v>
+        <v>22.879494000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1391.470000</v>
+        <v>1391.47</v>
       </c>
       <c r="AR23" s="1">
-        <v>-245.081000</v>
+        <v>-245.08099999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>82377.246232</v>
+        <v>82377.246232000005</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.882568</v>
+        <v>22.882567999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1415.100000</v>
+        <v>1415.1</v>
       </c>
       <c r="AW23" s="1">
-        <v>-303.372000</v>
+        <v>-303.37200000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>82387.938084</v>
+        <v>82387.938083999994</v>
       </c>
       <c r="AZ23" s="1">
         <v>22.885538</v>
       </c>
       <c r="BA23" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB23" s="1">
-        <v>-354.122000</v>
+        <v>-354.12200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>82398.723499</v>
@@ -6043,861 +6459,862 @@
         <v>22.888534</v>
       </c>
       <c r="BF23" s="1">
-        <v>1517.210000</v>
+        <v>1517.21</v>
       </c>
       <c r="BG23" s="1">
-        <v>-595.762000</v>
+        <v>-595.76199999999994</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>82409.811069</v>
+        <v>82409.811069000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.891614</v>
+        <v>22.891614000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1669.030000</v>
+        <v>1669.03</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1027.370000</v>
+        <v>-1027.3699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>82420.878834</v>
+        <v>82420.878834000003</v>
       </c>
       <c r="BO23" s="1">
         <v>22.894689</v>
       </c>
       <c r="BP23" s="1">
-        <v>1958.130000</v>
+        <v>1958.13</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1772.560000</v>
+        <v>-1772.56</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>82431.936640</v>
+        <v>82431.93664</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.897760</v>
+        <v>22.897760000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2338.970000</v>
+        <v>2338.9699999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2631.240000</v>
+        <v>-2631.24</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>82442.813873</v>
+        <v>82442.813873000006</v>
       </c>
       <c r="BY23" s="1">
         <v>22.900782</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2808.460000</v>
+        <v>2808.46</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3564.610000</v>
+        <v>-3564.61</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>82455.871584</v>
+        <v>82455.871583999993</v>
       </c>
       <c r="CD23" s="1">
-        <v>22.904409</v>
+        <v>22.904409000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4179.640000</v>
+        <v>4179.6400000000003</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5814.790000</v>
+        <v>-5814.79</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>82281.852663</v>
+        <v>82281.852662999998</v>
       </c>
       <c r="B24" s="1">
-        <v>22.856070</v>
+        <v>22.856069999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1236.170000</v>
+        <v>1236.17</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.854000</v>
+        <v>-303.85399999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>82292.273608</v>
+        <v>82292.273608000003</v>
       </c>
       <c r="G24" s="1">
-        <v>22.858965</v>
+        <v>22.858965000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1261.120000</v>
+        <v>1261.1199999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.197000</v>
+        <v>-262.197</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>82302.786810</v>
+        <v>82302.786810000005</v>
       </c>
       <c r="L24" s="1">
-        <v>22.861885</v>
+        <v>22.861885000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1296.590000</v>
+        <v>1296.5899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.911000</v>
+        <v>-200.911</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>82313.645228</v>
+        <v>82313.645227999994</v>
       </c>
       <c r="Q24" s="1">
         <v>22.864901</v>
       </c>
       <c r="R24" s="1">
-        <v>1308.290000</v>
+        <v>1308.29</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.523000</v>
+        <v>-182.523</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>82324.039390</v>
+        <v>82324.039390000005</v>
       </c>
       <c r="V24" s="1">
-        <v>22.867789</v>
+        <v>22.867788999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1321.570000</v>
+        <v>1321.57</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.583000</v>
+        <v>-168.583</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>82334.572433</v>
+        <v>82334.572432999994</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.870715</v>
+        <v>22.870715000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1338.580000</v>
+        <v>1338.58</v>
       </c>
       <c r="AC24" s="1">
-        <v>-165.470000</v>
+        <v>-165.47</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>82345.389682</v>
+        <v>82345.389681999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.873719</v>
+        <v>22.873719000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1351.050000</v>
+        <v>1351.05</v>
       </c>
       <c r="AH24" s="1">
-        <v>-174.226000</v>
+        <v>-174.226</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>82355.957940</v>
+        <v>82355.957939999993</v>
       </c>
       <c r="AK24" s="1">
         <v>22.876655</v>
       </c>
       <c r="AL24" s="1">
-        <v>1370.730000</v>
+        <v>1370.73</v>
       </c>
       <c r="AM24" s="1">
-        <v>-202.649000</v>
+        <v>-202.649</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>82366.857525</v>
+        <v>82366.857524999999</v>
       </c>
       <c r="AP24" s="1">
         <v>22.879683</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1391.460000</v>
+        <v>1391.46</v>
       </c>
       <c r="AR24" s="1">
-        <v>-245.085000</v>
+        <v>-245.08500000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>82377.695111</v>
+        <v>82377.695110999994</v>
       </c>
       <c r="AU24" s="1">
         <v>22.882693</v>
       </c>
       <c r="AV24" s="1">
-        <v>1415.110000</v>
+        <v>1415.11</v>
       </c>
       <c r="AW24" s="1">
-        <v>-303.376000</v>
+        <v>-303.37599999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>82388.349705</v>
+        <v>82388.349705000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.885653</v>
+        <v>22.885653000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1433.810000</v>
+        <v>1433.81</v>
       </c>
       <c r="BB24" s="1">
-        <v>-354.080000</v>
+        <v>-354.08</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>82399.083595</v>
+        <v>82399.083595000004</v>
       </c>
       <c r="BE24" s="1">
         <v>22.888634</v>
       </c>
       <c r="BF24" s="1">
-        <v>1517.180000</v>
+        <v>1517.18</v>
       </c>
       <c r="BG24" s="1">
-        <v>-595.786000</v>
+        <v>-595.78599999999994</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>82410.189516</v>
+        <v>82410.189515999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>22.891719</v>
+        <v>22.891718999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1027.360000</v>
+        <v>-1027.3599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>82421.273118</v>
+        <v>82421.273117999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.894798</v>
+        <v>22.894798000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1957.960000</v>
+        <v>1957.96</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1772.590000</v>
+        <v>-1772.59</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>82432.374575</v>
+        <v>82432.374574999994</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.897882</v>
+        <v>22.897881999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2339.200000</v>
+        <v>2339.1999999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2630.700000</v>
+        <v>-2630.7</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>82443.280609</v>
+        <v>82443.280608999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.900911</v>
+        <v>22.900911000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2807.770000</v>
+        <v>2807.77</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3564.940000</v>
+        <v>-3564.94</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>82456.390368</v>
+        <v>82456.390367999993</v>
       </c>
       <c r="CD24" s="1">
         <v>22.904553</v>
       </c>
       <c r="CE24" s="1">
-        <v>4193.910000</v>
+        <v>4193.91</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5814.550000</v>
+        <v>-5814.55</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>82282.194901</v>
+        <v>82282.194900999995</v>
       </c>
       <c r="B25" s="1">
-        <v>22.856165</v>
+        <v>22.856165000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1235.930000</v>
+        <v>1235.93</v>
       </c>
       <c r="D25" s="1">
-        <v>-303.800000</v>
+        <v>-303.8</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>82292.961591</v>
+        <v>82292.961590999999</v>
       </c>
       <c r="G25" s="1">
-        <v>22.859156</v>
+        <v>22.859155999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1260.720000</v>
+        <v>1260.72</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.509000</v>
+        <v>-262.50900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>82303.513946</v>
+        <v>82303.513946000006</v>
       </c>
       <c r="L25" s="1">
-        <v>22.862087</v>
+        <v>22.862086999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1296.470000</v>
+        <v>1296.47</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.430000</v>
+        <v>-200.43</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>82313.995403</v>
+        <v>82313.995402999994</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.864999</v>
+        <v>22.864999000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1308.350000</v>
+        <v>1308.3499999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-182.515000</v>
+        <v>-182.51499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>82324.382622</v>
+        <v>82324.382622000005</v>
       </c>
       <c r="V25" s="1">
         <v>22.867884</v>
       </c>
       <c r="W25" s="1">
-        <v>1321.590000</v>
+        <v>1321.59</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.915000</v>
+        <v>-168.91499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>82334.921120</v>
+        <v>82334.921119999999</v>
       </c>
       <c r="AA25" s="1">
         <v>22.870811</v>
       </c>
       <c r="AB25" s="1">
-        <v>1338.400000</v>
+        <v>1338.4</v>
       </c>
       <c r="AC25" s="1">
-        <v>-165.416000</v>
+        <v>-165.416</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>82346.055313</v>
+        <v>82346.055313000004</v>
       </c>
       <c r="AF25" s="1">
         <v>22.873904</v>
       </c>
       <c r="AG25" s="1">
-        <v>1351.040000</v>
+        <v>1351.04</v>
       </c>
       <c r="AH25" s="1">
-        <v>-174.245000</v>
+        <v>-174.245</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>82356.413267</v>
+        <v>82356.413266999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.876781</v>
+        <v>22.876781000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1370.710000</v>
+        <v>1370.71</v>
       </c>
       <c r="AM25" s="1">
-        <v>-202.646000</v>
+        <v>-202.64599999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>82367.264741</v>
+        <v>82367.264741000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>22.879796</v>
+        <v>22.879795999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1391.480000</v>
+        <v>1391.48</v>
       </c>
       <c r="AR25" s="1">
-        <v>-245.049000</v>
+        <v>-245.04900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>82378.062150</v>
+        <v>82378.062149999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>22.882795</v>
+        <v>22.882795000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1415.090000</v>
+        <v>1415.09</v>
       </c>
       <c r="AW25" s="1">
-        <v>-303.365000</v>
+        <v>-303.36500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>82388.726138</v>
+        <v>82388.726137999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.885757</v>
+        <v>22.885757000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1433.770000</v>
+        <v>1433.77</v>
       </c>
       <c r="BB25" s="1">
-        <v>-354.144000</v>
+        <v>-354.14400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>82399.444683</v>
+        <v>82399.444682999994</v>
       </c>
       <c r="BE25" s="1">
         <v>22.888735</v>
       </c>
       <c r="BF25" s="1">
-        <v>1517.190000</v>
+        <v>1517.19</v>
       </c>
       <c r="BG25" s="1">
-        <v>-595.797000</v>
+        <v>-595.79700000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>82410.627020</v>
+        <v>82410.62702</v>
       </c>
       <c r="BJ25" s="1">
-        <v>22.891841</v>
+        <v>22.891840999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1669.080000</v>
+        <v>1669.08</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1027.410000</v>
+        <v>-1027.4100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>82421.702159</v>
+        <v>82421.702158999993</v>
       </c>
       <c r="BO25" s="1">
         <v>22.894917</v>
       </c>
       <c r="BP25" s="1">
-        <v>1958.110000</v>
+        <v>1958.11</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1772.570000</v>
+        <v>-1772.57</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>82432.771391</v>
+        <v>82432.771391000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.897992</v>
+        <v>22.897991999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2339.210000</v>
+        <v>2339.21</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2629.930000</v>
+        <v>-2629.93</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>82443.677441</v>
+        <v>82443.677441000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.901022</v>
+        <v>22.901022000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2808.540000</v>
+        <v>2808.54</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3564.100000</v>
+        <v>-3564.1</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>82456.905711</v>
+        <v>82456.905710999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.904696</v>
+        <v>22.904696000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4191.390000</v>
+        <v>4191.3900000000003</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5798.260000</v>
+        <v>-5798.26</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>82282.880373</v>
+        <v>82282.880373000007</v>
       </c>
       <c r="B26" s="1">
-        <v>22.856356</v>
+        <v>22.856356000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1235.660000</v>
+        <v>1235.6600000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.985000</v>
+        <v>-303.98500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>82293.308759</v>
+        <v>82293.308759000007</v>
       </c>
       <c r="G26" s="1">
-        <v>22.859252</v>
+        <v>22.859252000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1261.780000</v>
+        <v>1261.78</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.966000</v>
+        <v>-262.96600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>82303.833406</v>
+        <v>82303.833406000005</v>
       </c>
       <c r="L26" s="1">
-        <v>22.862176</v>
+        <v>22.862176000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1296.420000</v>
+        <v>1296.42</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.777000</v>
+        <v>-200.77699999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>82314.345084</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.865096</v>
+        <v>22.865096000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1308.410000</v>
+        <v>1308.4100000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.492000</v>
+        <v>-182.49199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>82325.043293</v>
+        <v>82325.043292999995</v>
       </c>
       <c r="V26" s="1">
-        <v>22.868068</v>
+        <v>22.868068000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1321.570000</v>
+        <v>1321.57</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.293000</v>
+        <v>-168.29300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>82335.586256</v>
+        <v>82335.586255999995</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.870996</v>
+        <v>22.870996000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1338.470000</v>
+        <v>1338.47</v>
       </c>
       <c r="AC26" s="1">
-        <v>-165.289000</v>
+        <v>-165.28899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>82346.425333</v>
+        <v>82346.425333000007</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.874007</v>
+        <v>22.874006999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1351.030000</v>
+        <v>1351.03</v>
       </c>
       <c r="AH26" s="1">
-        <v>-174.161000</v>
+        <v>-174.161</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>82356.670692</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.876853</v>
+        <v>22.876853000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1370.750000</v>
+        <v>1370.75</v>
       </c>
       <c r="AM26" s="1">
-        <v>-202.644000</v>
+        <v>-202.64400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>82367.648149</v>
+        <v>82367.648149000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>22.879902</v>
+        <v>22.879902000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1391.480000</v>
+        <v>1391.48</v>
       </c>
       <c r="AR26" s="1">
-        <v>-245.099000</v>
+        <v>-245.09899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>82378.426712</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.882896</v>
+        <v>22.882895999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1415.090000</v>
+        <v>1415.09</v>
       </c>
       <c r="AW26" s="1">
-        <v>-303.369000</v>
+        <v>-303.36900000000003</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>82389.102104</v>
+        <v>82389.102104000005</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.885862</v>
+        <v>22.885861999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1433.790000</v>
+        <v>1433.79</v>
       </c>
       <c r="BB26" s="1">
-        <v>-354.121000</v>
+        <v>-354.12099999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>82399.871780</v>
+        <v>82399.871780000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.888853</v>
+        <v>22.888853000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1517.200000</v>
+        <v>1517.2</v>
       </c>
       <c r="BG26" s="1">
-        <v>-595.773000</v>
+        <v>-595.77300000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>82410.960333</v>
+        <v>82410.960332999995</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.891933</v>
+        <v>22.891933000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1669.000000</v>
+        <v>1669</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1027.400000</v>
+        <v>-1027.4000000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>82422.092508</v>
+        <v>82422.092508000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.895026</v>
+        <v>22.895026000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1957.930000</v>
+        <v>1957.93</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1772.630000</v>
+        <v>-1772.63</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>82433.185535</v>
+        <v>82433.185534999997</v>
       </c>
       <c r="BT26" s="1">
         <v>22.898107</v>
       </c>
       <c r="BU26" s="1">
-        <v>2339.030000</v>
+        <v>2339.0300000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2629.340000</v>
+        <v>-2629.34</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>82444.107935</v>
+        <v>82444.107935000007</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.901141</v>
+        <v>22.901140999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2808.840000</v>
+        <v>2808.84</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3564.900000</v>
+        <v>-3564.9</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>82457.422542</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.904840</v>
+        <v>22.90484</v>
       </c>
       <c r="CE26" s="1">
-        <v>4194.340000</v>
+        <v>4194.34</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5801.360000</v>
+        <v>-5801.36</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>